--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2687,6 +2687,986 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 육상에서 풍속 14m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>14m/s//10m/s//20m/s//15m/s//21m/s//7m/s//30m/s</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 육상에서 순간풍속 20m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>20m/s//10m/s//30m/s//15m/s//21m/s//28m/s//40m/s</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 산지에서 풍속 17m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>17m/s//14m/s//10m/s//20m/s//30m/s//15m/s//34m/s</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 산지에서 순간풍속 25m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>25m/s//20m/s//30m/s//40m/s//50m/s//34m/s//21m/s</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 육상에서 풍속 21m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>21m/s//14m/s//10m/s//20m/s//15m/s//7m/s//30m/s</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 육상에서 순간풍속 26m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>26m/s//20m/s//10m/s//30m/s//15m/s//21m/s//28m/s</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>24m/s//17m/s//14m/s//10m/s//20m/s//30m/s//15m/s</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 산지에서 순간풍속 30m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>30m/s//25m/s//20m/s//40m/s//50m/s//34m/s//21m/s</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>풍랑 주의보 : 해상에서 풍속 14m/s 이상이 3시간 이상 지속될 때</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>14m/s//10m/s//20m/s//15m/s//21m/s//7m/s//30m/s</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>풍랑 주의보 : 해상에서 풍속 14m/s 이상이 3시간 이상 지속될 때</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3시간//6시간//12시간</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>풍랑 주의보 : 유의파고 3m 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3m//6m//9m//12m</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>풍랑 경보 : 해상에서 풍속 21m/s 이상이 3시간 이상 지속될 때</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>21m/s//14m/s//10m/s//20m/s//15m/s//7m/s//30m/s</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>풍랑 경보 : 해상에서 풍속 21m/s 이상이 3시간 이상 지속될 때</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3시간//6시간//12시간</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>풍랑 경보 : 유의파고 5m 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>5m//3m//10m//15m//12m</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>호우 주의보 : 3시간 강우량이 60mm 이상</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>3시간//6시간//12시간</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>호우 주의보 : 3시간 강우량이 60mm 이상</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>60mm//30mm//50mm//100mm//110mm//90mm</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>호우 주의보 : 12시간 강우량이 110mm 이상</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>12시간//3시간//6시간</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>호우 주의보 : 12시간 강우량이 110mm 이상</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>110mm//60mm//30mm//50mm//100mm//180mm</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>호우 경보 : 3시간 강우량이 90mm 이상</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>3시간//6시간//12시간</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>호우 경보 : 3시간 강우량이 90mm 이상</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>90mm//60mm//30mm//50mm//100mm//110mm</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>호우 경보 : 12시간 강우량이 180mm 이상</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>12시간//3시간//6시간</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>호우 경보 : 12시간 강우량이 180mm 이상</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>180mm//110mm//60mm//30mm//50mm//100mm</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>대설 주의보 : 24시간 신적설이 5cm이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>24시간//12시간//6시간//48시간</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>대설 주의보 : 24시간 신적설이 5cm이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>5cm//3cm//2cm//1cm//8cm//10cm//15cm//20cm</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>대설 경보 : 24시간 신적설이 20cm 이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>24시간//12시간//6시간//48시간</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>대설 경보 : 24시간 신적설이 20cm 이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>20cm//5cm//3cm//2cm//1cm//8cm//10cm//15cm</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>대설 경보 : 산지의 24시간 신적설이 30cm 이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>30cm//20cm//5cm//3cm//2cm//1cm//8cm//10cm//15cm</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>건조 주의보 : 실효습도 35%이하가 2일 이상 계속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>35%//10%//25%//15%//20%//50%//70%</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>건조 주의보 : 실효습도 35%이하가 2일 이상 계속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2일//1일//3일//5일//10일</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>건조 경보 : 실효습도 25%이하가 2일 이상 계속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>25%//35%//10%//15%//20%//50%//70%</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>건조 경보 : 실효습도 25%이하가 2일 이상 계속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2일//1일//3일//5일//10일</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>한파 주의보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 10℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>10℃//5℃//15℃//20℃//30℃</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>한파 주의보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 10℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3℃//5℃//6℃//10℃</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>한파 주의보 : 10월 ~ 4월 중 ② 아침최저기온이 -12℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>-12℃//0℃//-5℃//-10℃//-15℃//-7℃</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>한파 주의보 : 10월 ~ 4월 중 ② 아침최저기온이 -12℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2일//1일//3일//5일//10일</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>한파 주의보 : 10월 ~ 4월 중 ③ 급격한 저온현상으로 중대한 피해가 예상될 때</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>중대한//경미한//보통의</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>한파 경보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 15℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>15℃//10℃//5℃//20℃//30℃</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>한파 경보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 15℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>3℃//5℃//6℃//10℃</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>한파 경보 : 10월 ~ 4월 중 ② 아침최저기온이 -15℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>-15℃//-12℃//0℃//-5℃//-10℃//-7℃</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>한파 경보 : 10월 ~ 4월 중 ② 아침최저기온이 -15℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2일//1일//3일//5일//10일</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>한파 경보 : 10월 ~ 4월 중 ③ 급격한 저온현상으로 광범위한 지역에서 중대한 피해가 예상될 때</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>중대한//경미한//보통의</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>급격한 저온현상으로 중대한 피해가 예상될 때</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>한파 주의보//한파 경보</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>급격한 저온현상으로 광범위한 지역에서 중대한 피해가 예상될 때</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>한파 경보//한파 주의보</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>일최고기온이 33℃ 이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>폭염 주의보//폭염 경보</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>① 일최고체감온도 33℃이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>폭염 주의보//폭염 경보</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>② 급격한 체감온도 상승 또는 폭염 장기화 등으로 중대한 피해발생이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>폭염 주의보//폭염 경보</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>일최고기온이 35℃ 이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>폭염 경보//폭염 주의보</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>① 일최고체감온도 35℃이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>폭염 경보//폭염 주의보</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>② 급격한 체감온도 상승 또는 폭염 장기화 등으로 광범위한 지역에서 중대한 피해발생이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>폭염 경보//폭염 주의보</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3604,7 +3604,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3664,7 +3664,587 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>엘니뇨 발생 시 인도네시아, 필리핀, 호주 북부 등에서 산불 발생 빈도가 증가한다</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>증가한다//감소한다</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>엘니뇨 발생 시 인도네시아, 필리핀, 호주 북부 등에서 연무와 대기오염이 심해진다</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>심해진다//약해진다</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>엘니뇨 발생 시 남방진동지수가 작아진다</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>작아진다//커진다 | 엘니뇨시 음의 값이다</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>블랙카본은 태양빛을 산란 또는 반사시켜 지표면에 도달하는 복사 에너지를 감소시킨다</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>X//O | 흡수하여 기온을 증가시킨다</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>반경 0.1㎛이하인 에어로졸은 확산에 의해 대기 중에서 잘 제거된다</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0.1㎛이하//0.1~1㎛//20㎛이상</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>반경 20㎛이상인 입자는 주로 침적, 지표면과의 충돌, 강수에 의해 대기 중에서 잘 제거된다</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>20㎛이상//0.1㎛이하//0.1~1㎛</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>반경 0.1~1㎛인 입자는 대기 중 체류시간이 길이 이 크기 범위의 입자를 accumulation mode라고 한다</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0.1~1㎛//0.1㎛이하//20㎛이상</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>대기 중 구름은 -40℃까지 물방울 상태를 유지할 수 있으며 이를 과냉각물방울이라고 한다</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>과냉각물방울//과포화물방울</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>과냉각물방울이 -40℃보다 높은 온도에서 얼기 위해서는 빙정핵이 필요하다</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>빙정핵//응결핵</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>북반구에서 동쪽으로 갈수록 기압이 감소하면 지균풍은 북풍이다</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>북풍//남풍 | 북반구, 남반구를 잘 보고 판단한다</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>남반구에서 동쪽으로 갈수록 기압이 감소하면 지균풍은 남풍이다</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>남풍//북풍 | 북반구, 남반구를 잘 보고 판단한다</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>겨울철 눈구름의 씨앗으로 대기 중에 뿌리는 대표적인 물질은 AgI이다</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>AgI//NaCl//CaCl₂//NH₄NO₃</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>이슬점온도//상대습도</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>상대습도는 얼마나 포화에 가까운지를 통해 파악한다</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>상대습도//이슬점온도</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>얼음보다 물의 유전율이 크다</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>크다//작다</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>밝은 띠 하부에서는 강수입자의 낙하속도가 증가한다</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>증가한다//감소한다</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>밝은 띠 하부에서는 강수입자의 반사도가 낮아진다</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>낮아진다//높아진다</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>로스비파는 지형의 영향을 받는다</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>O//X | 히말라야 산맥과 로키산맥이 로스비파에 영향을 준다</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>로스비파는 비단열 가열 과정의 영향을 받는다</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>O//X | 지면 가열은 하층 수렴과 상층 발산을 유발하며 이 발산이 로스비파를 형성할 수 있다</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>등온대기의 기압은 p=p₁exp(-z/H)이다. p₁은 지상의 기압, H는 규모고도이다</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>p=p₁exp(-z/H)//p=p₁exp(-H/z)//p=p₁ln(-z/H)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>925hPa 일기도에서 z[m]×0.01&lt;-(T(상층)-T(지상))이면 대기는 열적 불안정이다</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>불안정//안정//중립 | 건조단열감률 1℃/100m, 관측된 기온감률 비교</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>가로구름선(transverse cloud line)은 아열대제트에 의해 야기된 연직속도시어와 관련이 있다</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>아열대제트//한대제트</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>온대저기압은 전선을 따라 생긴 저기압성 섭동에서 시작한다</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>저기압성//고기압성</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>온대저기압 발생 과정에서 저기압성 회전은 닫힌 순환을 형성한다</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>닫힌 순환//열린 순환</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 상당온위는 변함없다</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>변함없다//증가한다//감소한다</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 습구온위는 변함없다</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>변함없다//증가한다//감소한다</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 온위는 증가한다</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>증가한다//감소한다//변함없다</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 이슬점온도는 감소한다</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>감소한다//증가한다//변함없다</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>포화혼합비가 클수록 수증기의 응결에 의한 잠열 방출이 크므로 포화단열감률이 작다</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>작다//크다</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="107">
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142">
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5024,7 +5024,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -5144,7 +5144,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -5565,6 +5565,866 @@
       </c>
       <c r="D256" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>관성력/점성력</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>레이놀즈 수//리차드슨 수</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>레이놀즈 수</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>관성력/점성력//점성력/관성력</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>열적난류/기계적난류</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>리차드슨 수//레이놀즈 수</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>리차드슨 수</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>열적난류/기계적난류//기계적난류/열적난류</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>레이놀즈수는 클수록 난류가 된다</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>클수록//작을수록</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 작을수록 층류가 된다</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>작을수록//클수록</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>리차드슨 수가 0이면 기계적난류만 존재한다</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>기계적난류//열적난류</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>열대수렴대 ITCZ는 여름반구에 위치한다</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>여름반구//겨울반구</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>해들리순환은 겨울반구에 위치한다</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>겨울반구//여름반구</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>비어의 법칙, τ는 연직 광학두께</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Iλ=Iλ∞exp(-τsecθ)//Iλ∞=Iλexp(-τsecθ)//Iλ=Iλ∞exp(-τcosθ)//Iλ∞=Iλexp(-τcosθ)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>결착(accretion=riming)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>과냉각수적+빙정//빙정+빙정//수적+수적</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>부착(aggretion)</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>빙정+빙정//과냉각수적+빙정//수적+수적</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>병합(coalescence)</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>수적+수적//빙정+빙정//과냉각수적+빙정</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 동풍의 극야제트가 존재한다</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>동풍//서풍</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 서풍의 극야제트가 존재한다</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>극-적도//극-중위도</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>절대와도 보존</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>단열과정 + 비발산대기//단열과정 + 지균운동</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>잠재와도 보존</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>단열과정 + 지균운동//단열과정 + 비발산대기</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>동네예보는 3시간 간격으로 발표한다</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>3시간//6시간//12시간</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>동네예보는 일8회 발표한다</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>8회//4회//12회</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>장마전선은 850hPa 고도에서 상당온위 333K 이상의 고상당온위 구역 중 남북의 상당온위 경도가 큰 지역에 나타난다</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>333K//300K//330K</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>장마전선은 850hPa 고도에서 상당온위 333K 이상의 고상당온위 구역 중 남북의 상당온위 경도가 큰 지역에 나타난다</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>850hPa//지상//500hPa</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>장마전선은 850hPa 고도에서 상당온위 333K 이상의 고상당온위 구역 중 남북의 상당온위 경도가 큰 지역에 나타난다</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>남북//동서</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>장마전선은 850hPa 고도에서 상당온위 333K 이상의 고상당온위 구역 중 남북의 상당온위 경도가 큰 지역에 나타난다</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>남북의 상당온위 경도//상당온위</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>50mm//40mm//30mm//60mm</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>850hPa//지상//500hPa</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>노점편차//이슬점온도</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>4℃//3℃//2℃//5℃//1℃</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>장마전선은 500hPa 5820~5880m 구역에 위치한다</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>5820~5880m//5520~5580m</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>지상전문 기압 변동 : 증가</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>0 ~ 3//4//5 ~ 8</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>지상전문 기압 변동 : 감소</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>5 ~ 8//0 ~ 3//4</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>지상전문 기압 변동 : 유지</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>4//0 ~ 3//5 ~ 8</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>지상전문 ∞</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>연무//박무</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>지상전문 ∞</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>5번//6번//10번 | 연무</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>지상전문 S</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>6번//5번//10번</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>지상전문 =</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>10번//6번//5번 | 박무</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>지상전문 =</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>박무//연무</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지상전문 : </t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>62번//61번//63번 | 보통 비 단속</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>지상전문 ㆍㆍ</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>61번//62번//63번 | 약한 비 계속</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>지상전문 ∴</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>63번//61번//62번 | 보통 비 계속</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>동네예보 강수량, 적설량은 6시간 간격이다</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>6시간//3시간//2시간//1시간</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>동네예보 하늘 상태, 강수 유무는 3시간 간격이다</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>3시간//6시간//2시간//1시간</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>동네예보 풍향, 풍속 3시간 간격이다</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>3시간//6시간//2시간//1시간</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>동네예보 기온, 습도 3시간 간격이다</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>3시간//6시간//2시간//1시간</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="35">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="44">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="46">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="49">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="54">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="62">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="65">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="67">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="69">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="76">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="78">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="92">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="94">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="95">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="96">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="99">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>편중도(Bias)</t>
+          <t>편중도(Bias) | 편중도 = 편차</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2478,11 +2478,57 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
+        <is>
+          <t>H/(H+M+F)
+______|  예보 O  | 예보 X
+관측 O |    H    |   M
+관측 X |    F    |   C</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>임계성공지수(CSI)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>강수 검증지수</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>F/(H+F)
+______|  예보 O  | 예보 X
+관측 O |    H    |   M
+관측 X |    F    |   C</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>오보율(FAR)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>강수 검증지수</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>H/(H+M)
 ______|  예보 O  | 예보 X
@@ -2490,72 +2536,29 @@
 관측 X |    F    |   C</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>임계성공지수(POD)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>탐지율(POD)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>강수 검증지수</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>F/(H+F)
-______|  예보 O  | 예보 X
-관측 O |    H    |   M
-관측 X |    F    |   C</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>오보율(FAR)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>강수 검증지수</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
+      <c r="D105" t="n">
         <v>-3</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>시정 VV : 50</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>5km//50km | 01~50은 VV * 0.1km</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>시정</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>-2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>시정 VV : 10</t>
+          <t>시정 VV : 50</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1km//10km | 01~50은 VV * 0.1km</t>
+          <t>5km//50km | 01~50은 VV * 0.1km</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2570,12 +2573,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>시정 VV : 56</t>
+          <t>시정 VV : 10</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6km//5.6km//30km | 56~80은 (VV-50)km</t>
+          <t>1km//10km | 01~50은 VV * 0.1km</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2584,18 +2587,18 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>시정 VV : 70</t>
+          <t>시정 VV : 56</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>20km//70km//7km | 56~80은 (VV-50)km</t>
+          <t>6km//5.6km//30km | 56~80은 (VV-50)km</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2610,12 +2613,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>시정 VV : 60</t>
+          <t>시정 VV : 70</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>10km//60km//6km | 56~80은 (VV-50)km</t>
+          <t>20km//70km//7km | 56~80은 (VV-50)km</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2630,12 +2633,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>시정 VV : 80</t>
+          <t>시정 VV : 60</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>30km//80km//8km | 56~80은 (VV-50)km</t>
+          <t>10km//60km//6km | 56~80은 (VV-50)km</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2650,12 +2653,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>시정 VV : 81</t>
+          <t>시정 VV : 80</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>35km//31km//8.1km | 81~88은 (VV-80)*5+30 km</t>
+          <t>30km//80km//8km | 56~80은 (VV-50)km</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2664,18 +2667,18 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>시정 VV : 88</t>
+          <t>시정 VV : 81</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>70km//38km//8.8km | 81~88은 (VV-80)*5+30 km</t>
+          <t>35km//31km//8.1km | 81~88은 (VV-80)*5+30 km</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2690,32 +2693,32 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>강풍 주의보 : 육상에서 풍속 14m/s 이상이 예상될 때</t>
+          <t>시정 VV : 88</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>14m/s//10m/s//20m/s//15m/s//21m/s//7m/s//30m/s</t>
+          <t>70km//38km//8.8km | 81~88은 (VV-80)*5+30 km</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>기본</t>
+          <t>시정</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>강풍 주의보 : 육상에서 순간풍속 20m/s 이상이 예상될 때</t>
+          <t>강풍 주의보 : 육상에서 풍속 14m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>20m/s//10m/s//30m/s//15m/s//21m/s//28m/s//40m/s</t>
+          <t>14m/s//10m/s//20m/s//15m/s//21m/s//7m/s//30m/s</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2724,18 +2727,18 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>강풍 주의보 : 산지에서 풍속 17m/s 이상이 예상될 때</t>
+          <t>강풍 주의보 : 육상에서 순간풍속 20m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>17m/s//14m/s//10m/s//20m/s//30m/s//15m/s//34m/s</t>
+          <t>20m/s//10m/s//30m/s//15m/s//21m/s//28m/s//40m/s</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2744,18 +2747,18 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>강풍 주의보 : 산지에서 순간풍속 25m/s 이상이 예상될 때</t>
+          <t>강풍 주의보 : 산지에서 풍속 17m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>25m/s//20m/s//30m/s//40m/s//50m/s//34m/s//21m/s</t>
+          <t>17m/s//14m/s//10m/s//20m/s//30m/s//15m/s//34m/s</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2764,18 +2767,18 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>강풍 경보 : 육상에서 풍속 21m/s 이상이 예상될 때</t>
+          <t>강풍 주의보 : 산지에서 순간풍속 25m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>21m/s//14m/s//10m/s//20m/s//15m/s//7m/s//30m/s</t>
+          <t>25m/s//20m/s//30m/s//40m/s//50m/s//34m/s//21m/s</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2784,18 +2787,18 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>강풍 경보 : 육상에서 순간풍속 26m/s 이상이 예상될 때</t>
+          <t>강풍 경보 : 육상에서 풍속 21m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>26m/s//20m/s//10m/s//30m/s//15m/s//21m/s//28m/s</t>
+          <t>21m/s//14m/s//10m/s//20m/s//15m/s//7m/s//30m/s</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2810,12 +2813,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
+          <t>강풍 경보 : 육상에서 순간풍속 26m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>24m/s//17m/s//14m/s//10m/s//20m/s//30m/s//15m/s</t>
+          <t>26m/s//20m/s//10m/s//30m/s//15m/s//21m/s//28m/s</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2830,12 +2833,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>강풍 경보 : 산지에서 순간풍속 30m/s 이상이 예상될 때</t>
+          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>30m/s//25m/s//20m/s//40m/s//50m/s//34m/s//21m/s</t>
+          <t>24m/s//17m/s//14m/s//10m/s//20m/s//30m/s//15m/s</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2850,12 +2853,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>풍랑 주의보 : 해상에서 풍속 14m/s 이상이 3시간 이상 지속될 때</t>
+          <t>강풍 경보 : 산지에서 순간풍속 30m/s 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14m/s//10m/s//20m/s//15m/s//21m/s//7m/s//30m/s</t>
+          <t>30m/s//25m/s//20m/s//40m/s//50m/s//34m/s//21m/s</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2875,7 +2878,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3시간//6시간//12시간</t>
+          <t>14m/s//10m/s//20m/s//15m/s//21m/s//7m/s//30m/s</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2890,12 +2893,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>풍랑 주의보 : 유의파고 3m 이상이 예상될 때</t>
+          <t>풍랑 주의보 : 해상에서 풍속 14m/s 이상이 3시간 이상 지속될 때</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3m//6m//9m//12m</t>
+          <t>3시간//6시간//12시간</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2904,18 +2907,18 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>풍랑 경보 : 해상에서 풍속 21m/s 이상이 3시간 이상 지속될 때</t>
+          <t>풍랑 주의보 : 유의파고 3m 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>21m/s//14m/s//10m/s//20m/s//15m/s//7m/s//30m/s</t>
+          <t>3m//6m//9m//12m</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2935,7 +2938,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3시간//6시간//12시간</t>
+          <t>21m/s//14m/s//10m/s//20m/s//15m/s//7m/s//30m/s</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2950,12 +2953,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>풍랑 경보 : 유의파고 5m 이상이 예상될 때</t>
+          <t>풍랑 경보 : 해상에서 풍속 21m/s 이상이 3시간 이상 지속될 때</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5m//3m//10m//15m//12m</t>
+          <t>3시간//6시간//12시간</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2964,18 +2967,18 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>호우 주의보 : 3시간 강우량이 60mm 이상</t>
+          <t>풍랑 경보 : 유의파고 5m 이상이 예상될 때</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3시간//6시간//12시간</t>
+          <t>5m//3m//10m//15m//12m</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2995,7 +2998,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>60mm//30mm//50mm//100mm//110mm//90mm</t>
+          <t>3시간//6시간//12시간</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3004,18 +3007,18 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>호우 주의보 : 12시간 강우량이 110mm 이상</t>
+          <t>호우 주의보 : 3시간 강우량이 60mm 이상</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>12시간//3시간//6시간</t>
+          <t>60mm//30mm//50mm//100mm//110mm//90mm</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3024,7 +3027,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="130">
@@ -3035,7 +3038,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>110mm//60mm//30mm//50mm//100mm//180mm</t>
+          <t>12시간//3시간//6시간</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3044,18 +3047,18 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>호우 경보 : 3시간 강우량이 90mm 이상</t>
+          <t>호우 주의보 : 12시간 강우량이 110mm 이상</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3시간//6시간//12시간</t>
+          <t>110mm//60mm//30mm//50mm//100mm//180mm</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3064,7 +3067,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="132">
@@ -3075,7 +3078,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>90mm//60mm//30mm//50mm//100mm//110mm</t>
+          <t>3시간//6시간//12시간</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3090,12 +3093,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>호우 경보 : 12시간 강우량이 180mm 이상</t>
+          <t>호우 경보 : 3시간 강우량이 90mm 이상</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>12시간//3시간//6시간</t>
+          <t>90mm//60mm//30mm//50mm//100mm//110mm</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3104,7 +3107,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3115,7 +3118,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>180mm//110mm//60mm//30mm//50mm//100mm</t>
+          <t>12시간//3시간//6시간</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3130,12 +3133,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>대설 주의보 : 24시간 신적설이 5cm이상 예상될 때</t>
+          <t>호우 경보 : 12시간 강우량이 180mm 이상</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>24시간//12시간//6시간//48시간</t>
+          <t>180mm//110mm//60mm//30mm//50mm//100mm</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3144,7 +3147,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="136">
@@ -3155,7 +3158,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5cm//3cm//2cm//1cm//8cm//10cm//15cm//20cm</t>
+          <t>24시간//12시간//6시간//48시간</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3164,18 +3167,18 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>대설 경보 : 24시간 신적설이 20cm 이상 예상될 때</t>
+          <t>대설 주의보 : 24시간 신적설이 5cm이상 예상될 때</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>24시간//12시간//6시간//48시간</t>
+          <t>5cm//3cm//2cm//1cm//8cm//10cm//15cm//20cm</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3195,7 +3198,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>20cm//5cm//3cm//2cm//1cm//8cm//10cm//15cm</t>
+          <t>24시간//12시간//6시간//48시간</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3210,12 +3213,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>대설 경보 : 산지의 24시간 신적설이 30cm 이상 예상될 때</t>
+          <t>대설 경보 : 24시간 신적설이 20cm 이상 예상될 때</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>30cm//20cm//5cm//3cm//2cm//1cm//8cm//10cm//15cm</t>
+          <t>20cm//5cm//3cm//2cm//1cm//8cm//10cm//15cm</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3230,12 +3233,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>건조 주의보 : 실효습도 35%이하가 2일 이상 계속될 것이 예상될 때</t>
+          <t>대설 경보 : 산지의 24시간 신적설이 30cm 이상 예상될 때</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>35%//10%//25%//15%//20%//50%//70%</t>
+          <t>30cm//20cm//5cm//3cm//2cm//1cm//8cm//10cm//15cm</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3255,7 +3258,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2일//1일//3일//5일//10일</t>
+          <t>35%//10%//25%//15%//20%//50%//70%</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3270,12 +3273,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>건조 경보 : 실효습도 25%이하가 2일 이상 계속될 것이 예상될 때</t>
+          <t>건조 주의보 : 실효습도 35%이하가 2일 이상 계속될 것이 예상될 때</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>25%//35%//10%//15%//20%//50%//70%</t>
+          <t>2일//1일//3일//5일//10일</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3295,7 +3298,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2일//1일//3일//5일//10일</t>
+          <t>25%//35%//10%//15%//20%//50%//70%</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3304,18 +3307,18 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>한파 주의보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 10℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
+          <t>건조 경보 : 실효습도 25%이하가 2일 이상 계속될 것이 예상될 때</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>10℃//5℃//15℃//20℃//30℃</t>
+          <t>2일//1일//3일//5일//10일</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3335,7 +3338,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3℃//5℃//6℃//10℃</t>
+          <t>10℃//5℃//15℃//20℃//30℃</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3350,12 +3353,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>한파 주의보 : 10월 ~ 4월 중 ② 아침최저기온이 -12℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+          <t>한파 주의보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 10℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-12℃//0℃//-5℃//-10℃//-15℃//-7℃</t>
+          <t>3℃//5℃//6℃//10℃</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3375,7 +3378,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2일//1일//3일//5일//10일</t>
+          <t>-12℃//0℃//-5℃//-10℃//-15℃//-7℃</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3390,12 +3393,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>한파 주의보 : 10월 ~ 4월 중 ③ 급격한 저온현상으로 중대한 피해가 예상될 때</t>
+          <t>한파 주의보 : 10월 ~ 4월 중 ② 아침최저기온이 -12℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>중대한//경미한//보통의</t>
+          <t>2일//1일//3일//5일//10일</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3410,12 +3413,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>한파 경보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 15℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
+          <t>한파 주의보 : 10월 ~ 4월 중 ③ 급격한 저온현상으로 중대한 피해가 예상될 때</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>15℃//10℃//5℃//20℃//30℃</t>
+          <t>중대한//경미한//보통의</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3435,7 +3438,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3℃//5℃//6℃//10℃</t>
+          <t>15℃//10℃//5℃//20℃//30℃</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3444,18 +3447,18 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>한파 경보 : 10월 ~ 4월 중 ② 아침최저기온이 -15℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+          <t>한파 경보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 15℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-15℃//-12℃//0℃//-5℃//-10℃//-7℃</t>
+          <t>3℃//5℃//6℃//10℃</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3464,7 +3467,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="152">
@@ -3475,7 +3478,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2일//1일//3일//5일//10일</t>
+          <t>-15℃//-12℃//0℃//-5℃//-10℃//-7℃</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3484,18 +3487,18 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>한파 경보 : 10월 ~ 4월 중 ③ 급격한 저온현상으로 광범위한 지역에서 중대한 피해가 예상될 때</t>
+          <t>한파 경보 : 10월 ~ 4월 중 ② 아침최저기온이 -15℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>중대한//경미한//보통의</t>
+          <t>2일//1일//3일//5일//10일</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3504,18 +3507,18 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>급격한 저온현상으로 중대한 피해가 예상될 때</t>
+          <t>한파 경보 : 10월 ~ 4월 중 ③ 급격한 저온현상으로 광범위한 지역에서 중대한 피해가 예상될 때</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>한파 주의보//한파 경보</t>
+          <t>중대한//경미한//보통의</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3524,18 +3527,18 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>급격한 저온현상으로 광범위한 지역에서 중대한 피해가 예상될 때</t>
+          <t>급격한 저온현상으로 중대한 피해가 예상될 때</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>한파 경보//한파 주의보</t>
+          <t>한파 주의보//한파 경보</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3550,12 +3553,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>일최고기온이 33℃ 이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+          <t>급격한 저온현상으로 광범위한 지역에서 중대한 피해가 예상될 때</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>폭염 주의보//폭염 경보</t>
+          <t>한파 경보//한파 주의보</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3570,7 +3573,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>① 일최고체감온도 33℃이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+          <t>일최고기온이 33℃ 이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3590,7 +3593,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>② 급격한 체감온도 상승 또는 폭염 장기화 등으로 중대한 피해발생이 예상될 때</t>
+          <t>① 일최고체감온도 33℃이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3604,18 +3607,18 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>일최고기온이 35℃ 이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+          <t>② 급격한 체감온도 상승 또는 폭염 장기화 등으로 중대한 피해발생이 예상될 때</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>폭염 경보//폭염 주의보</t>
+          <t>폭염 주의보//폭염 경보</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3630,7 +3633,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>① 일최고체감온도 35℃이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+          <t>일최고기온이 35℃ 이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3644,13 +3647,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>② 급격한 체감온도 상승 또는 폭염 장기화 등으로 광범위한 지역에서 중대한 피해발생이 예상될 때</t>
+          <t>① 일최고체감온도 35℃이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3670,32 +3673,32 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>엘니뇨 발생 시 인도네시아, 필리핀, 호주 북부 등에서 산불 발생 빈도가 증가한다</t>
+          <t>② 급격한 체감온도 상승 또는 폭염 장기화 등으로 광범위한 지역에서 중대한 피해발생이 예상될 때</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>증가한다//감소한다</t>
+          <t>폭염 경보//폭염 주의보</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2020년 9급</t>
+          <t>기본</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>엘니뇨 발생 시 인도네시아, 필리핀, 호주 북부 등에서 연무와 대기오염이 심해진다</t>
+          <t>엘니뇨 발생 시 인도네시아, 필리핀, 호주 북부 등에서 산불 발생 빈도가 증가한다</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>심해진다//약해진다</t>
+          <t>증가한다//감소한다</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3704,18 +3707,18 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>엘니뇨 발생 시 남방진동지수가 작아진다</t>
+          <t>엘니뇨 발생 시 인도네시아, 필리핀, 호주 북부 등에서 연무와 대기오염이 심해진다</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>작아진다//커진다 | 엘니뇨시 음의 값이다</t>
+          <t>심해진다//약해진다</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3730,12 +3733,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>블랙카본은 태양빛을 산란 또는 반사시켜 지표면에 도달하는 복사 에너지를 감소시킨다</t>
+          <t>엘니뇨 발생 시 남방진동지수가 작아진다</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>X//O | 흡수하여 기온을 증가시킨다</t>
+          <t>작아진다//커진다 | 엘니뇨시 음의 값이다</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3744,18 +3747,18 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>반경 0.1㎛이하인 에어로졸은 확산에 의해 대기 중에서 잘 제거된다</t>
+          <t>블랙카본은 태양빛을 산란 또는 반사시켜 지표면에 도달하는 복사 에너지를 감소시킨다</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>0.1㎛이하//0.1~1㎛//20㎛이상</t>
+          <t>X//O | 흡수하여 기온을 증가시킨다</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3770,12 +3773,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>반경 20㎛이상인 입자는 주로 침적, 지표면과의 충돌, 강수에 의해 대기 중에서 잘 제거된다</t>
+          <t>반경 0.1㎛이하인 에어로졸은 확산에 의해 대기 중에서 잘 제거된다</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>20㎛이상//0.1㎛이하//0.1~1㎛</t>
+          <t>0.1㎛이하//0.1~1㎛//20㎛이상</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3790,12 +3793,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>반경 0.1~1㎛인 입자는 대기 중 체류시간이 길이 이 크기 범위의 입자를 accumulation mode라고 한다</t>
+          <t>반경 20㎛이상인 입자는 주로 침적, 지표면과의 충돌, 강수에 의해 대기 중에서 잘 제거된다</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>0.1~1㎛//0.1㎛이하//20㎛이상</t>
+          <t>20㎛이상//0.1㎛이하//0.1~1㎛</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3810,12 +3813,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>대기 중 구름은 -40℃까지 물방울 상태를 유지할 수 있으며 이를 과냉각물방울이라고 한다</t>
+          <t>반경 0.1~1㎛인 입자는 대기 중 체류시간이 길이 이 크기 범위의 입자를 accumulation mode라고 한다</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>과냉각물방울//과포화물방울</t>
+          <t>0.1~1㎛//0.1㎛이하//20㎛이상</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3824,18 +3827,18 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>과냉각물방울이 -40℃보다 높은 온도에서 얼기 위해서는 빙정핵이 필요하다</t>
+          <t>대기 중 구름은 -40℃까지 물방울 상태를 유지할 수 있으며 이를 과냉각물방울이라고 한다</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>빙정핵//응결핵</t>
+          <t>과냉각물방울//과포화물방울</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3844,18 +3847,18 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>북반구에서 동쪽으로 갈수록 기압이 감소하면 지균풍은 북풍이다</t>
+          <t>과냉각물방울이 -40℃보다 높은 온도에서 얼기 위해서는 빙정핵이 필요하다</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>북풍//남풍 | 북반구, 남반구를 잘 보고 판단한다</t>
+          <t>빙정핵//응결핵</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3870,12 +3873,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>남반구에서 동쪽으로 갈수록 기압이 감소하면 지균풍은 남풍이다</t>
+          <t>북반구에서 동쪽으로 갈수록 기압이 감소하면 지균풍은 북풍이다</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>남풍//북풍 | 북반구, 남반구를 잘 보고 판단한다</t>
+          <t>북풍//남풍 | 북반구, 남반구를 잘 보고 판단한다</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3890,12 +3893,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>겨울철 눈구름의 씨앗으로 대기 중에 뿌리는 대표적인 물질은 AgI이다</t>
+          <t>남반구에서 동쪽으로 갈수록 기압이 감소하면 지균풍은 남풍이다</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AgI//NaCl//CaCl₂//NH₄NO₃</t>
+          <t>남풍//북풍 | 북반구, 남반구를 잘 보고 판단한다</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3904,18 +3907,18 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
+          <t>겨울철 눈구름의 씨앗으로 대기 중에 뿌리는 대표적인 물질은 AgI이다</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>이슬점온도//상대습도</t>
+          <t>AgI//NaCl//CaCl₂//NH₄NO₃</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3924,18 +3927,18 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>상대습도는 얼마나 포화에 가까운지를 통해 파악한다</t>
+          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>상대습도//이슬점온도</t>
+          <t>이슬점온도//상대습도</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3944,18 +3947,18 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>얼음보다 물의 유전율이 크다</t>
+          <t>상대습도는 얼마나 포화에 가까운지를 통해 파악한다</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>크다//작다</t>
+          <t>상대습도//이슬점온도</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3970,12 +3973,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>밝은 띠 하부에서는 강수입자의 낙하속도가 증가한다</t>
+          <t>얼음보다 물의 유전율이 크다</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>증가한다//감소한다</t>
+          <t>크다//작다</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3984,18 +3987,18 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>밝은 띠 하부에서는 강수입자의 반사도가 낮아진다</t>
+          <t>밝은 띠 하부에서는 강수입자의 낙하속도가 증가한다</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>낮아진다//높아진다</t>
+          <t>증가한다//감소한다</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4004,18 +4007,18 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>로스비파는 지형의 영향을 받는다</t>
+          <t>밝은 띠 하부에서는 강수입자의 반사도가 낮아진다</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>O//X | 히말라야 산맥과 로키산맥이 로스비파에 영향을 준다</t>
+          <t>낮아진다//높아진다</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4030,12 +4033,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>로스비파는 비단열 가열 과정의 영향을 받는다</t>
+          <t>로스비파는 지형의 영향을 받는다</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>O//X | 지면 가열은 하층 수렴과 상층 발산을 유발하며 이 발산이 로스비파를 형성할 수 있다</t>
+          <t>O//X | 히말라야 산맥과 로키산맥이 로스비파에 영향을 준다</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4050,12 +4053,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>등온대기의 기압은 p=p₁exp(-z/H)이다. p₁은 지상의 기압, H는 규모고도이다</t>
+          <t>로스비파는 비단열 가열 과정의 영향을 받는다</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>p=p₁exp(-z/H)//p=p₁exp(-H/z)//p=p₁ln(-z/H)</t>
+          <t>O//X | 지면 가열은 하층 수렴과 상층 발산을 유발하며 이 발산이 로스비파를 형성할 수 있다</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4070,12 +4073,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>925hPa 일기도에서 z[m]×0.01&lt;-(T(상층)-T(지상))이면 대기는 열적 불안정이다</t>
+          <t>등온대기의 기압은 p=p₁exp(-z/H)이다. p₁은 지상의 기압, H는 규모고도이다</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>불안정//안정//중립 | 건조단열감률 1℃/100m, 관측된 기온감률 비교</t>
+          <t>p=p₁exp(-z/H)//p=p₁exp(-H/z)//p=p₁ln(-z/H)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4090,12 +4093,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>가로구름선(transverse cloud line)은 아열대제트에 의해 야기된 연직속도시어와 관련이 있다</t>
+          <t>925hPa 일기도에서 z[m]×0.01&lt;-(T(상층)-T(지상))이면 대기는 열적 불안정이다</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>아열대제트//한대제트</t>
+          <t>불안정//안정//중립 | 건조단열감률 1℃/100m, 관측된 기온감률 비교</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4110,12 +4113,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>온대저기압은 전선을 따라 생긴 저기압성 섭동에서 시작한다</t>
+          <t>가로구름선(transverse cloud line)은 아열대제트에 의해 야기된 연직속도시어와 관련이 있다</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>저기압성//고기압성</t>
+          <t>아열대제트//한대제트</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4130,12 +4133,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>온대저기압 발생 과정에서 저기압성 회전은 닫힌 순환을 형성한다</t>
+          <t>온대저기압은 전선을 따라 생긴 저기압성 섭동에서 시작한다</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>닫힌 순환//열린 순환</t>
+          <t>저기압성//고기압성</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4144,18 +4147,18 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 상당온위는 변함없다</t>
+          <t>온대저기압 발생 과정에서 저기압성 회전은 닫힌 순환을 형성한다</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>변함없다//증가한다//감소한다</t>
+          <t>닫힌 순환//열린 순환</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4170,7 +4173,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 습구온위는 변함없다</t>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 상당온위는 변함없다</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4190,12 +4193,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 온위는 증가한다</t>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 습구온위는 변함없다</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>증가한다//감소한다//변함없다</t>
+          <t>변함없다//증가한다//감소한다</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4210,12 +4213,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 이슬점온도는 감소한다</t>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 온위는 증가한다</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>감소한다//증가한다//변함없다</t>
+          <t>증가한다//감소한다//변함없다</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4230,12 +4233,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>포화혼합비가 클수록 수증기의 응결에 의한 잠열 방출이 크므로 포화단열감률이 작다</t>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 이슬점온도는 감소한다</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>작다//크다</t>
+          <t>감소한다//증가한다//변함없다</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4250,32 +4253,32 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>기온의 일교차는 대기경계층에서만 나타난다</t>
+          <t>포화혼합비가 클수록 수증기의 응결에 의한 잠열 방출이 크므로 포화단열감률이 작다</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>대기경계층//자유대기</t>
+          <t>작다//크다</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2021년 9급</t>
+          <t>2020년 9급</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>기온의 일교차는 지표면에서 가장 크다</t>
+          <t>기온의 일교차는 대기경계층에서만 나타난다</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>지표면//대류권계면</t>
+          <t>대기경계층//자유대기</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4290,12 +4293,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>기온의 일교차는 지상에서부터 고도가 높아질수록 감소한다</t>
+          <t>기온의 일교차는 지표면에서 가장 크다</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>감소한다//증가한다//변함없다</t>
+          <t>지표면//대류권계면</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4304,18 +4307,18 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>같은 영하의 온도에서 얼음에 대한 포화수증기압은 물에 대한 포화수증기압보다 작다</t>
+          <t>기온의 일교차는 지상에서부터 고도가 높아질수록 감소한다</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>작다//크다</t>
+          <t>감소한다//증가한다//변함없다</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4330,12 +4333,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>중력파에 의해 형성된 구름은 대기가 안정한 상태임을 나타낸다</t>
+          <t>같은 영하의 온도에서 얼음에 대한 포화수증기압은 물에 대한 포화수증기압보다 작다</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>안정//불안정</t>
+          <t>작다//크다</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4350,12 +4353,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>적도에서 전향력은 존재한다</t>
+          <t>중력파에 의해 형성된 구름은 대기가 안정한 상태임을 나타낸다</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>존재한다//존재하지 않는다 | co.f = (2Ωsinφ*v-2Ωcosφ*w, -2Ωsinφ*u, 2Ωcosφ*u), Ω는 지구자전각속도, φ는 위도. 적도에서 cosφ ≠ 0이기 때문에 전향력이 존재한다</t>
+          <t>안정//불안정</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4370,12 +4373,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>연직 방향으로 상승하는 물체는 전향력이 존재한다</t>
+          <t>적도에서 전향력은 존재한다</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>존재한다//존재하지 않는다 | co.f = (2Ωsinφ*v-2Ωcosφ*w, -2Ωsinφ*u, 2Ωcosφ*u), Ω는 지구자전각속도, φ는 위도. 상승 운동은 -2Ωcosφ*w&lt;0이므로 서쪽 방향 전향력이 작용한다</t>
+          <t>존재한다//존재하지 않는다 | co.f = (2Ωsinφ*v-2Ωcosφ*w, -2Ωsinφ*u, 2Ωcosφ*u), Ω는 지구자전각속도, φ는 위도. 적도에서 cosφ ≠ 0이기 때문에 전향력이 존재한다</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4384,18 +4387,18 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>구름 형성 과정에서 상승기류는 수적의 낙하속도를 불규칙적으로 만든다</t>
+          <t>연직 방향으로 상승하는 물체는 전향력이 존재한다</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>불규칙//규칙 | 구름 형성 과정에서 상승기류는 수적의 낙하속도를 불규칙적으로 만들어 수적끼리 충돌 및 병합을 더 활발하게 만든다</t>
+          <t>존재한다//존재하지 않는다 | co.f = (2Ωsinφ*v-2Ωcosφ*w, -2Ωsinφ*u, 2Ωcosφ*u), Ω는 지구자전각속도, φ는 위도. 상승 운동은 -2Ωcosφ*w&lt;0이므로 서쪽 방향 전향력이 작용한다</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4410,12 +4413,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>찬 구름(Cold cloud)에서 싸락눈은 보통 부착(Aggregation) 또는 상고대화(Riming) 과정을 거쳐 생성된다</t>
+          <t>구름 형성 과정에서 상승기류는 수적의 낙하속도를 불규칙적으로 만든다</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>O//X</t>
+          <t>불규칙//규칙 | 구름 형성 과정에서 상승기류는 수적의 낙하속도를 불규칙적으로 만들어 수적끼리 충돌 및 병합을 더 활발하게 만든다</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4430,12 +4433,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>해들리순환은 지표면의 차등복사냉각에 의해 유지된다</t>
+          <t>찬 구름(Cold cloud)에서 싸락눈은 보통 부착(Aggregation) 또는 상고대화(Riming) 과정을 거쳐 생성된다</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>X//O | 차등복사'가열'에 의해 유지된다</t>
+          <t>O//X</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4450,12 +4453,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>해들리순환의 연직 속도는 수평 속도보다 강하다</t>
+          <t>해들리순환은 지표면의 차등복사냉각에 의해 유지된다</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>강하다//약하다</t>
+          <t>X//O | 차등복사'가열'에 의해 유지된다</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4464,18 +4467,18 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>북극진동은 극 지방과 중위도 지방의 해면기압 차이로 표현한다</t>
+          <t>해들리순환의 연직 속도는 수평 속도보다 강하다</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>중위도//적도</t>
+          <t>강하다//약하다</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4490,12 +4493,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>북극진동이 양의 위상에 있을 때 한대 제트류가 강화된다</t>
+          <t>북극진동은 극 지방과 중위도 지방의 해면기압 차이로 표현한다</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>양의 위상//음의 위상</t>
+          <t>중위도//적도</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4504,13 +4507,13 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>북극진동이 양의 위상에 있을 때 중위도 겨울은 평년보다 온난해지는 경향이 있다</t>
+          <t>북극진동이 양의 위상에 있을 때 한대 제트류가 강화된다</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4524,18 +4527,18 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>성층권돌연승온 현상이 발생했을 때 북극진동은 음의 위상이다</t>
+          <t>북극진동이 양의 위상에 있을 때 중위도 겨울은 평년보다 온난해지는 경향이 있다</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>음의 위상//양의 위상</t>
+          <t>양의 위상//음의 위상</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4550,12 +4553,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>지구 온난화의 결과로 전지구 평균강수량은 증가한다</t>
+          <t>성층권돌연승온 현상이 발생했을 때 북극진동은 음의 위상이다</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>증가//감소</t>
+          <t>음의 위상//양의 위상</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4564,18 +4567,18 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>지구 온난화의 결과로 중위도 대류권 제트류는 약화된다</t>
+          <t>지구 온난화의 결과로 전지구 평균강수량은 증가한다</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>약화//강화</t>
+          <t>증가//감소</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4584,13 +4587,13 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>지구 온난화의 결과로 대서양 열염순환 강도는 약화된다</t>
+          <t>지구 온난화의 결과로 중위도 대류권 제트류는 약화된다</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4610,12 +4613,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>지구 온난화의 결과로 여름철 극지방의 빙하 면적 감소는 강화된다</t>
+          <t>지구 온난화의 결과로 대서양 열염순환 강도는 약화된다</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>강화//약화</t>
+          <t>약화//강화</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4630,12 +4633,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>부력진동수의 공식은 √{(g/T)(Γd-Γ)}이다</t>
+          <t>지구 온난화의 결과로 여름철 극지방의 빙하 면적 감소는 강화된다</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>√{(g/T)(Γd-Γ)}//√{(T/g)(Γd-Γ)}//√{(g/T)(Γ-Γd)}//√{(T/g)(Γ-Γd)}</t>
+          <t>강화//약화</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4650,12 +4653,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>태풍은 중심으로 갈수록 바람이 강해진다</t>
+          <t>부력진동수의 공식은 √{(g/T)(Γd-Γ)}이다</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>강해진다//약해진다</t>
+          <t>√{(g/T)(Γd-Γ)}//√{(T/g)(Γd-Γ)}//√{(g/T)(Γ-Γd)}//√{(T/g)(Γ-Γd)}</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4670,7 +4673,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>온대저기압은 상층으로 갈수록 바람이 강해진다</t>
+          <t>태풍은 중심으로 갈수록 바람이 강해진다</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4690,12 +4693,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>온대저기압은 수평방향 온도 경도에서 에너지를 얻는다</t>
+          <t>온대저기압은 상층으로 갈수록 바람이 강해진다</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>수평방향//연직방향</t>
+          <t>강해진다//약해진다</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4704,18 +4707,18 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>온대저기압의 하층에서는 중심부근 기온이 주변보다</t>
+          <t>온대저기압은 수평방향 온도 경도에서 에너지를 얻는다</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>높다//낮다</t>
+          <t>수평방향//연직방향</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4730,12 +4733,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>온대저기압의 상층에서는 중심부근 기온이 주변보다</t>
+          <t>온대저기압의 하층에서는 중심부근 기온이 주변보다</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>낮다//높다</t>
+          <t>높다//낮다</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4744,13 +4747,13 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>일반적으로 가온도는 상당온도보다 낮다</t>
+          <t>온대저기압의 상층에서는 중심부근 기온이 주변보다</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4764,18 +4767,18 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>가온도 공식은 Tv=T(1+0.61q)이다</t>
+          <t>일반적으로 가온도는 상당온도보다 낮다</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tv=T(1+0.61q)//Tv=T(1+6.1q)//Tv=T(1-0.61q)//Tv=T(1-6.1q)</t>
+          <t>낮다//높다</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4790,12 +4793,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>평균적인 대류권 대기에서 가온도는 지상에서 상층으로 갈수록 낮아진다</t>
+          <t>가온도 공식은 Tv=T(1+0.61q)이다</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>낮아진다//높아진다</t>
+          <t>Tv=T(1+0.61q)//Tv=T(1+6.1q)//Tv=T(1-0.61q)//Tv=T(1-6.1q)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4804,18 +4807,18 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>아열대 제트류는 각운동량 보존의 결과로 생성된다</t>
+          <t>평균적인 대류권 대기에서 가온도는 지상에서 상층으로 갈수록 낮아진다</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>아열대 제트류//한대 제트류</t>
+          <t>낮아진다//높아진다</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4830,12 +4833,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>한대 제트류는 강한 기온 경도에 의해 발생하는 한대 전선과 밀접한 관련이 있다</t>
+          <t>아열대 제트류는 각운동량 보존의 결과로 생성된다</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>한대 제트류//아열대 제트류</t>
+          <t>아열대 제트류//한대 제트류</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4850,12 +4853,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>고층기상전문에서 직접 읽은 자료는 노점편차이다</t>
+          <t>한대 제트류는 강한 기온 경도에 의해 발생하는 한대 전선과 밀접한 관련이 있다</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>노점편차//노점온도</t>
+          <t>한대 제트류//아열대 제트류</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4864,13 +4867,13 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>고층전문기입모델은 노점편차를 표기한다</t>
+          <t>고층기상전문에서 직접 읽은 자료는 노점편차이다</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4890,12 +4893,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>(중요!) 기상특보는 예상한 값을 기준으로 한다</t>
+          <t>고층전문기입모델은 노점편차를 표기한다</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>예상한//관측된 | 실제 문제는 관측값과 예측값을 모두 주고 특보 여부를 물어보므로 주의한다</t>
+          <t>노점편차//노점온도</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4910,12 +4913,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>주야간 황사 탐지에 활용되는 위성 산출물에서 사용되는 채널과 탐지 원리는</t>
+          <t>(중요!) 기상특보는 예상한 값을 기준으로 한다</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>적외채널-밝기온도차//단파적외채널-반사도 비교</t>
+          <t>예상한//관측된 | 실제 문제는 관측값과 예측값을 모두 주고 특보 여부를 물어보므로 주의한다</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4930,12 +4933,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>위치소용돌이도를 이용해 대류권계면접힘을 분석할 수 있다</t>
+          <t>주야간 황사 탐지에 활용되는 위성 산출물에서 사용되는 채널과 탐지 원리는</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>O//X</t>
+          <t>적외채널-밝기온도차//단파적외채널-반사도 비교</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4950,12 +4953,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>우리나라는 양쯔강기단의 영향을 받는다</t>
+          <t>위치소용돌이도를 이용해 대류권계면접힘을 분석할 수 있다</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>O//X | 양쯔강기단을 쓰지 않는다는 말이 있지만 2021년 문제에 사용하는 것으로 기출되었다</t>
+          <t>O//X</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4970,17 +4973,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>상변화에 사용되는 에너지는 잠열이다</t>
+          <t>우리나라는 양쯔강기단의 영향을 받는다</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>잠열//현열</t>
+          <t>O//X | 양쯔강기단을 쓰지 않는다는 말이 있지만 2021년 문제에 사용하는 것으로 기출되었다</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2022년 9급</t>
+          <t>2021년 9급</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4990,12 +4993,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>상변화 없이 온도 변화에 사용되는 에너지는 현열이다</t>
+          <t>상변화에 사용되는 에너지는 잠열이다</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>현열//잠열</t>
+          <t>잠열//현열</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5004,18 +5007,18 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>지구복사수지(earth radiation budget)에 따르면 지표에서 대기로의 열전달은 현열보다 잠열의 역할이 더 크다</t>
+          <t>상변화 없이 온도 변화에 사용되는 에너지는 현열이다</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>현열보다 잠열//잠열보다 현열</t>
+          <t>현열//잠열</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5024,18 +5027,18 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>수증기는 지구복사에너지를 흡수하여 대기의 온도를 높인다</t>
+          <t>지구복사수지(earth radiation budget)에 따르면 지표에서 대기로의 열전달은 현열보다 잠열의 역할이 더 크다</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>O//X</t>
+          <t>현열보다 잠열//잠열보다 현열</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5044,18 +5047,18 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>수증기는 강수구름을 형성하여 상층의 열에너지를 지표 부근의 하층으로 이동시킨다</t>
+          <t>수증기는 지구복사에너지를 흡수하여 대기의 온도를 높인다</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>X//O | 지표의 에너지를 상층으로 이동시킨다</t>
+          <t>O//X</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5064,18 +5067,18 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>동서방향의 지균풍만 있다면 북반구에서 고기압성 상대소용돌이도의 절댓값이 행성 소용돌이도의 절댓값보다 클 때 관성적으로 불안정하다</t>
+          <t>수증기는 강수구름을 형성하여 상층의 열에너지를 지표 부근의 하층으로 이동시킨다</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>불안정하다//안정하다//중립이다</t>
+          <t>X//O | 지표의 에너지를 상층으로 이동시킨다</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5090,12 +5093,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>응결에 의한 구름방울 성장속도는 구름방울이 커질수록 느려진다</t>
+          <t>동서방향의 지균풍만 있다면 북반구에서 고기압성 상대소용돌이도의 절댓값이 행성 소용돌이도의 절댓값보다 클 때 관성적으로 불안정하다</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>느려//빨라</t>
+          <t>불안정하다//안정하다//중립이다</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5110,12 +5113,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>구름방울이 커질수록 종단속도가 빨라진다</t>
+          <t>응결에 의한 구름방울 성장속도는 구름방울이 커질수록 느려진다</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>빨라//느려</t>
+          <t>느려//빨라</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5124,18 +5127,18 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>구름방울 간 종단속도가 다를수록 빗방울로 빠르게 성장한다</t>
+          <t>구름방울이 커질수록 종단속도가 빨라진다</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>다를수록//비슷할수록</t>
+          <t>빨라//느려</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5150,12 +5153,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>육지 상공보다 해양 상공에서 구름응결핵이 빗방울로 쉽게 성장한다</t>
+          <t>구름방울 간 종단속도가 다를수록 빗방울로 빠르게 성장한다</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>쉽게//어렵게</t>
+          <t>다를수록//비슷할수록</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5170,12 +5173,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>동일한 공기에 대해 혼합비는 비습보다 크다</t>
+          <t>육지 상공보다 해양 상공에서 구름응결핵이 빗방울로 쉽게 성장한다</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>크다//작다</t>
+          <t>쉽게//어렵게</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5190,12 +5193,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>혼합비는 수증기/건조공기이다</t>
+          <t>동일한 공기에 대해 혼합비는 비습보다 크다</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>수증기/건조공기//수증기/습윤공기</t>
+          <t>크다//작다</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5204,18 +5207,18 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>비습은 수증기/습윤공기이다</t>
+          <t>혼합비는 수증기/건조공기이다</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>수증기/습윤공기//수증기/건조공기</t>
+          <t>수증기/건조공기//수증기/습윤공기</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5230,12 +5233,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>엘니뇨 발생시 열대동태평양의 수온약층의 깊이는 깊어진다</t>
+          <t>비습은 수증기/습윤공기이다</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>깊어진다//얕아진다</t>
+          <t>수증기/습윤공기//수증기/건조공기</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5250,12 +5253,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>엘니뇨 발생시 워커순환의 강도는 기후학적 평균보다 약하다</t>
+          <t>엘니뇨 발생시 열대동태평양의 수온약층의 깊이는 깊어진다</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>약하다//강하다</t>
+          <t>깊어진다//얕아진다</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5270,12 +5273,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>입자 반지름&lt;빛의 파장 일 때 레일리 산란이 발생한다</t>
+          <t>엘니뇨 발생시 워커순환의 강도는 기후학적 평균보다 약하다</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>레일리 산란//미 산란</t>
+          <t>약하다//강하다</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5290,7 +5293,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>크기인자 &lt; 1일 때 레일리 산란이 발생한다</t>
+          <t>입자 반지름&lt;빛의 파장 일 때 레일리 산란이 발생한다</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5310,7 +5313,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>레일리 산란은 전방산란과 후방산란의 세기가 비슷하다</t>
+          <t>크기인자 &lt; 1일 때 레일리 산란이 발생한다</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5324,18 +5327,18 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>가시광선이 10㎛ 크기의 미세먼지 입자에 부딪힐 때 미 산란이 발생한다</t>
+          <t>레일리 산란은 전방산란과 후방산란의 세기가 비슷하다</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>미 산란//레일리 산란</t>
+          <t>레일리 산란//미 산란</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5350,12 +5353,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>하늘이 파랗게 보이는 원리는 레일리 산란이다</t>
+          <t>가시광선이 10㎛ 크기의 미세먼지 입자에 부딪힐 때 미 산란이 발생한다</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>레일리 산란//미 산란</t>
+          <t>미 산란//레일리 산란</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5370,12 +5373,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>승화잠열은 증발잠열보다 크다</t>
+          <t>하늘이 파랗게 보이는 원리는 레일리 산란이다</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>크다//작다</t>
+          <t>레일리 산란//미 산란</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5384,18 +5387,18 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>빙정의 포화수증기압은 과냉각수적의 포화수증기압보다 낮다</t>
+          <t>승화잠열은 증발잠열보다 크다</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>낮다//높다</t>
+          <t>크다//작다</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5404,18 +5407,18 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>안개: 가시영상, 적외영상</t>
+          <t>빙정의 포화수증기압은 과냉각수적의 포화수증기압보다 낮다</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>밝다, 어둡다//밝다, 밝다//어둡다, 밝다//어둡다, 어둡다 | 층운과 동일</t>
+          <t>낮다//높다</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5424,18 +5427,18 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>층운: 가시영상, 적외영상</t>
+          <t>안개: 가시영상, 적외영상</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>밝다, 어둡다//밝다, 밝다//어둡다, 밝다//어둡다, 어둡다 | 안개와 동일</t>
+          <t>밝다, 어둡다//밝다, 밝다//어둡다, 밝다//어둡다, 어둡다 | 층운과 동일</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5450,12 +5453,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>권운: 가시영상, 적외영상</t>
+          <t>층운: 가시영상, 적외영상</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>어둡다, 밝다//밝다, 어둡다//밝다, 밝다//어둡다, 어둡다</t>
+          <t>밝다, 어둡다//밝다, 밝다//어둡다, 밝다//어둡다, 어둡다 | 안개와 동일</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5470,12 +5473,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>적란운: 가시영상, 적외영상</t>
+          <t>권운: 가시영상, 적외영상</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>밝다, 밝다//어둡다, 밝다//밝다, 어둡다//어둡다, 어둡다</t>
+          <t>어둡다, 밝다//밝다, 어둡다//밝다, 밝다//어둡다, 어둡다</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5484,18 +5487,18 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>극값예측지수(EFI)는 백분율의 절댓값이 클수록 재해기상 가능성이 높다는 의미이다</t>
+          <t>적란운: 가시영상, 적외영상</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>높다//낮다</t>
+          <t>밝다, 밝다//어둡다, 밝다//밝다, 어둡다//어둡다, 어둡다</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5504,18 +5507,18 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>극값예측지수(EFI)는 계절과 기상요소에 따라 위험기상 발생 가능성을 알 수 있다</t>
+          <t>극값예측지수(EFI)는 백분율의 절댓값이 클수록 재해기상 가능성이 높다는 의미이다</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>O//X</t>
+          <t>높다//낮다</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5530,7 +5533,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>극값예측지수(EFI)는 모델기후의 확률분포에서 벗어난 정도를 지수로 표현한 것이다</t>
+          <t>극값예측지수(EFI)는 계절과 기상요소에 따라 위험기상 발생 가능성을 알 수 있다</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5550,12 +5553,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>극값예측지수(EFI)는 모델의 기후 분포와의 차이를 보여준다</t>
+          <t>극값예측지수(EFI)는 모델기후의 확률분포에서 벗어난 정도를 지수로 표현한 것이다</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>모델의 기후 분포와//전지구 관측 평균기후 값과</t>
+          <t>O//X</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5570,17 +5573,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>관성력/점성력</t>
+          <t>극값예측지수(EFI)는 모델의 기후 분포와의 차이를 보여준다</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>레이놀즈 수//리차드슨 수</t>
+          <t>모델의 기후 분포와//전지구 관측 평균기후 값과</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>기본</t>
+          <t>2022년 9급</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -5590,12 +5593,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>레이놀즈 수</t>
+          <t>관성력/점성력</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>관성력/점성력//점성력/관성력</t>
+          <t>레이놀즈 수//리차드슨 수</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5604,18 +5607,18 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>열적난류/기계적난류</t>
+          <t>레이놀즈 수</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>리차드슨 수//레이놀즈 수</t>
+          <t>관성력/점성력//점성력/관성력</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5630,12 +5633,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>리차드슨 수</t>
+          <t>열적난류/기계적난류</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>열적난류/기계적난류//기계적난류/열적난류</t>
+          <t>리차드슨 수//레이놀즈 수</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5644,18 +5647,18 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>레이놀즈수는 클수록 난류가 된다</t>
+          <t>리차드슨 수</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>클수록//작을수록</t>
+          <t>열적난류/기계적난류//기계적난류/열적난류</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5664,18 +5667,18 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>레이놀즈 수가 작을수록 층류가 된다</t>
+          <t>레이놀즈수는 클수록 난류가 된다</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>작을수록//클수록</t>
+          <t>클수록//작을수록</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5684,18 +5687,18 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>리차드슨 수가 0이면 기계적난류만 존재한다</t>
+          <t>레이놀즈 수가 작을수록 층류가 된다</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>기계적난류//열적난류</t>
+          <t>작을수록//클수록</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5704,18 +5707,18 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>열대수렴대 ITCZ는 여름반구에 위치한다</t>
+          <t>리차드슨 수가 0이면 기계적난류만 존재한다</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>여름반구//겨울반구</t>
+          <t>기계적난류//열적난류</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5724,18 +5727,18 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>해들리순환은 겨울반구에 위치한다</t>
+          <t>열대수렴대 ITCZ는 여름반구에 위치한다</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>겨울반구//여름반구</t>
+          <t>여름반구//겨울반구</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5744,18 +5747,18 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>비어의 법칙, τ는 연직 광학두께</t>
+          <t>해들리순환은 겨울반구에 위치한다</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Iλ=Iλ∞exp(-τsecθ)//Iλ∞=Iλexp(-τsecθ)//Iλ=Iλ∞exp(-τcosθ)//Iλ∞=Iλexp(-τcosθ)</t>
+          <t>겨울반구//여름반구</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5764,18 +5767,18 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>결착(accretion=riming)</t>
+          <t>비어의 법칙, τ는 연직 광학두께</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>과냉각수적+빙정//빙정+빙정//수적+수적</t>
+          <t>Iλ=Iλ∞exp(-τsecθ)//Iλ∞=Iλexp(-τsecθ)//Iλ=Iλ∞exp(-τcosθ)//Iλ∞=Iλexp(-τcosθ)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5784,18 +5787,18 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>부착(aggretion)</t>
+          <t>결착(accretion=riming)</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>빙정+빙정//과냉각수적+빙정//수적+수적</t>
+          <t>과냉각수적+빙정//빙정+빙정//수적+수적</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5810,12 +5813,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>병합(coalescence)</t>
+          <t>부착(aggretion)</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>수적+수적//빙정+빙정//과냉각수적+빙정</t>
+          <t>빙정+빙정//과냉각수적+빙정//수적+수적</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5824,18 +5827,18 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 동풍의 극야제트가 존재한다</t>
+          <t>병합(coalescence)</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>동풍//서풍</t>
+          <t>수적+수적//빙정+빙정//과냉각수적+빙정</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5844,18 +5847,18 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 서풍의 극야제트가 존재한다</t>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 동풍의 극야제트가 존재한다</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>극-적도//극-중위도</t>
+          <t>동풍//서풍</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5870,12 +5873,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>절대와도 보존</t>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 서풍의 극야제트가 존재한다</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>단열과정 + 비발산대기//단열과정 + 지균운동</t>
+          <t>극-적도//극-중위도</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5884,18 +5887,18 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>잠재와도 보존</t>
+          <t>절대와도 보존</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>단열과정 + 지균운동//단열과정 + 비발산대기</t>
+          <t>단열과정 + 비발산대기//단열과정 + 지균운동</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5910,12 +5913,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>동네예보는 3시간 간격으로 발표한다</t>
+          <t>잠재와도 보존</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>3시간//6시간//12시간</t>
+          <t>단열과정 + 지균운동//단열과정 + 비발산대기</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5924,18 +5927,18 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>동네예보는 일8회 발표한다</t>
+          <t>동네예보는 3시간 간격으로 발표한다</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>8회//4회//12회</t>
+          <t>3시간//6시간//12시간</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5950,12 +5953,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>장마전선은 850hPa 고도에서 상당온위 333K 이상의 고상당온위 구역 중 남북의 상당온위 경도가 큰 지역에 나타난다</t>
+          <t>동네예보는 일8회 발표한다</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>333K//300K//330K</t>
+          <t>8회//4회//12회</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5975,7 +5978,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>850hPa//지상//500hPa</t>
+          <t>333K//300K//330K</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5995,7 +5998,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>남북//동서</t>
+          <t>850hPa//지상//500hPa</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6015,7 +6018,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>남북의 상당온위 경도//상당온위</t>
+          <t>남북//동서</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6024,18 +6027,18 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+          <t>장마전선은 850hPa 고도에서 상당온위 333K 이상의 고상당온위 구역 중 남북의 상당온위 경도가 큰 지역에 나타난다</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>50mm//40mm//30mm//60mm</t>
+          <t>남북의 상당온위 경도//상당온위</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6044,7 +6047,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="281">
@@ -6055,7 +6058,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>850hPa//지상//500hPa</t>
+          <t>50mm//40mm//30mm//60mm</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6064,7 +6067,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
@@ -6075,7 +6078,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>노점편차//이슬점온도</t>
+          <t>850hPa//지상//500hPa</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6095,7 +6098,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>4℃//3℃//2℃//5℃//1℃</t>
+          <t>노점편차//이슬점온도</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6110,12 +6113,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>장마전선은 500hPa 5820~5880m 구역에 위치한다</t>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>5820~5880m//5520~5580m</t>
+          <t>4℃//3℃//2℃//5℃//1℃</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6124,18 +6127,18 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>지상전문 기압 변동 : 증가</t>
+          <t>장마전선은 500hPa 5820~5880m 구역에 위치한다</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>0 ~ 3//4//5 ~ 8</t>
+          <t>5820~5880m//5520~5580m</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6150,12 +6153,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>지상전문 기압 변동 : 감소</t>
+          <t>지상전문 기압 변동 : 증가</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>5 ~ 8//0 ~ 3//4</t>
+          <t>0 ~ 3//4//5 ~ 8</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6170,12 +6173,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>지상전문 기압 변동 : 유지</t>
+          <t>지상전문 기압 변동 : 감소</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>4//0 ~ 3//5 ~ 8</t>
+          <t>5 ~ 8//0 ~ 3//4</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6190,12 +6193,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>지상전문 ∞</t>
+          <t>지상전문 기압 변동 : 유지</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>연무//박무</t>
+          <t>4//0 ~ 3//5 ~ 8</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6204,7 +6207,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="289">
@@ -6215,7 +6218,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>5번//6번//10번 | 연무</t>
+          <t>연무//박무</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6224,18 +6227,18 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>지상전문 S</t>
+          <t>지상전문 ∞</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>6번//5번//10번</t>
+          <t>5번//6번//10번 | 연무</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6244,18 +6247,18 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>지상전문 =</t>
+          <t>지상전문 S</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>10번//6번//5번 | 박무</t>
+          <t>6번//5번//10번</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6275,7 +6278,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>박무//연무</t>
+          <t>10번//6번//5번 | 박무</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6290,12 +6293,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t xml:space="preserve">지상전문 : </t>
+          <t>지상전문 =</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>62번//61번//63번 | 보통 비 단속</t>
+          <t>박무//연무</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6304,18 +6307,18 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>지상전문 ㆍㆍ</t>
+          <t xml:space="preserve">지상전문 : </t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>61번//62번//63번 | 약한 비 계속</t>
+          <t>62번//61번//63번 | 보통 비 단속</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6330,12 +6333,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>지상전문 ∴</t>
+          <t>지상전문 ㆍㆍ</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>63번//61번//62번 | 보통 비 계속</t>
+          <t>61번//62번//63번 | 약한 비 계속</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6350,12 +6353,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>동네예보 강수량, 적설량은 6시간 간격이다</t>
+          <t>지상전문 ∴</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>6시간//3시간//2시간//1시간</t>
+          <t>63번//61번//62번 | 보통 비 계속</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6364,18 +6367,18 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>동네예보 하늘 상태, 강수 유무는 3시간 간격이다</t>
+          <t>동네예보 강수량, 적설량은 6시간 간격이다</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>3시간//6시간//2시간//1시간</t>
+          <t>6시간//3시간//2시간//1시간</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6384,13 +6387,13 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>동네예보 풍향, 풍속 3시간 간격이다</t>
+          <t>동네예보 하늘 상태, 강수 유무는 3시간 간격이다</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6404,27 +6407,367 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
+          <t>동네예보 풍향, 풍속 3시간 간격이다</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>3시간//6시간//2시간//1시간</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
           <t>동네예보 기온, 습도 3시간 간격이다</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B300" t="inlineStr">
         <is>
           <t>3시간//6시간//2시간//1시간</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>다세포 뇌우의 이동방향은 평균 바람의 방향의 오른쪽이다</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>다세포 뇌우//다세포 뇌우의 각 세포</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>다세포 뇌우의 각 세포의 이동방향은 평균 풍향과 같다</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>다세포 뇌우의 각 세포//다세포 뇌우</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>경압 불안정 파동에 의한 페렐 순환은 2차 간접 순환이다</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2차 간접 순환//2차 직접 순환//1차 간접 순환//1차 직접 순환</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>산란하는 전자기파의 진행방향은 곡선이다</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>곡선//직선</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>산란하는 전자기파는 스넬의 법칙을 따른다</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>O//X</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>레이더는 후방산란된 전자기파를 측정한다</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>후방산란//전방산란</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>레이더는 레일리 산란을 측정한다</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>레일리 산란//미 산란</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>가용 위치 에너지 APE 는 수평방향의 온도경도에 의해 결정된다</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>수평방향//연직방향</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>가용 위치 에너지 APE 는 단열 운동에 의해 변환될 수 있는 운동에너지의 최대량과 같다</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>단열 운동//비단열 운동</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>가용 위치 에너지 APE 는 열적 직접 순환에 의해 감소한다</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>감소한다//증가한다//변함없다</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>성층권 돌연승온은 1주일 동안 40~60K의 기온 증가를 기준으로 정의한다</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>40~60K//30K//20~30K//30~40K</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>성층권 돌연승온은 대기 파동에너지가 강한 겨울철에 주로 발생한다</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>겨울철//여름철</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>성층권 돌연승온 현상은 서풍이 약해진다</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>약해진다//강해진다 | 서풍이 약해지거나 동풍으로 전환된다</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>토네이도는 각운동량 보존과 관련이 있다</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>있다//없다</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>토네이도는 상하층간의 온도차가 크다</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>크다//작다</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>토네이도는 발생지역 주변에 중층대기로부터 유입되는 차고 건조한 하강기류가 존재해야 한다</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>O//X</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="12">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="47">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="66">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="73">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="81">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="93">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="94">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="99">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="101">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="102">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="114">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="123">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="125">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="128">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="143">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="147">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="154">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="155">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="157">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="162">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="163">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="164">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="166">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="167">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="172">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="173">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="175">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="188">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="191">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="205">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="206">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="211">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="218">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="228">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="230">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="232">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="233">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="234">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="238">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="249">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="252">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="256">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="261">
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="266">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="273">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="275">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="276">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="279">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="282">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="283">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="285">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="291">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="303">
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="308">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="314">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -6767,7 +6767,1027 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>KI=T850-T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>KI//LI//SSI//CT//TT</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Cp [ J Kg^-1 K^-1 ]</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1004//717//287</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Cv [ J Kg^-1 K^-1 ]</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>717//287//1004</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Rd [ J Kg^-1 K^-1 ]</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>287//717//1004</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>6.2㎛</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>수증기//이산화탄소//오존//메탄 | 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>6.3㎛</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>수증기//이산화탄소//오존//메탄 | 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>6.9㎛</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>수증기//이산화탄소//오존//메탄 | 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>7.2㎛</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>수증기//이산화탄소//오존//메탄 | 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>8~11㎛</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>이산화탄소//수증기//오존//메탄 | 8~11, 15.4㎛</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>15.4㎛</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>이산화탄소//수증기//오존//메탄 | 8~11, 15.4㎛</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>9.6㎛</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>오존//수증기//이산화탄소//메탄</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>3.7㎛</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>메탄//오존//수증기//이산화탄소</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>황사 탐지</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>10.8㎛-12.0㎛//3.7㎛-10.8㎛ | 3.7㎛-10.8㎛ 는 안개</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>안개 탐지</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>3.7㎛-10.8㎛//10.8㎛-12.0㎛ | 10.8㎛-12.0㎛ 는 황사 탐지</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>응결에 의한 구름내 물방울 성장 크기</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>~수십㎛//~0.5㎜ | 0.5㎜는 구름방울 크기</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>구름방울 크기</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>0.5㎜//수십㎛ | 수십㎛는 응결에 의해 성장한 물방울의 크기</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>건조단열감률</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>g/Cp//Cp/g//R/Cp//Cp/R | R/Cp=0.286은 온위 계산 시 사용하는 상수</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>온위 공식에 사용되는 상수</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>R/Cp//Cp/R//g/Cp//Cp/g | g/Cp는 건조단열감률</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1g/kg을 kg/kg으로 변환하면?</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>0.001kg/kg//0.01kg/kg//0.1kg/kg//1kg/kg | 양변에 0이 3개</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>10g/kg을 kg/kg으로 변환하면?</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>0.01kg/kg//0.001kg/kg//0.1kg/kg//1kg/kg | 양변에 0이 3개</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1hPa=100Pa</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>100Pa//10Pa//1Pa</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1기압=1013hPa</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1013hPa//1Pa//1hPa</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1기압=76cmHg</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>76cmHg//1cmHg//76mHg</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>한때 : 예보 기간 중 1/4 이하, 1~2번</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1/4 이하, 1~2번//1/2 이하, 1~2번//1/4 이하, 0~1번//1/2 이하, 0~1번</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>구름 조금</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>3~5할//0~2할//1~3할 | 맑음(0~2할), 구름 조금(3~5할), 구름 많음(6~8할), 흐림(9~10할)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>구름 많음</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>6~8할//5할 이상//8할~10할 | 맑음(0~2할), 구름 조금(3~5할), 구름 많음(6~8할), 흐림(9~10할)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>유의파고 : 특정 시간 주기 내에서 관측되는 모든 파고 중 가장 높은 3분의 1에 해당하는 파고의 평균 높이</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>3분의 1//4분의 1//5분의 1</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>높은 물결 : 2~3m</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2~3m//물결의 높이가 특보수준에 도달 예상</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>매우 높은 물결 : 물결의 높이가 특보수준에 도달 예상</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>물결의 높이가 특보수준에 도달 예상//2~3m</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>아침 최저기온 : 3~9시 가장 낮은 기온</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>3~9시//6~9시//6시~12시</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>낮 최고기온 : 9~18시 가장 높은 기온</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>9~18시//11시~18시//12시~16시</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>상층일기도 등고선 묘화 기준 : 500hPa = 5580m, 60m, 5℃, 5574m</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>5580m//5500m//5880m</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>카르노 기관에서 압축시 단열과정은 등온과정보다 압력이 크다</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>크다//작다</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>카르노 기관에서 팽창시 단열과정은 등온과정보다 압력이 작다</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>작다//크다</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>카르노 기관의 열효율 공식 : 1-T_cold/T_hot</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1-T_cold/T_hot//1+T_cold/T_hot//1-T_hot/T_cold//1+T_hot/T_cold | (1) 온도차가 클수록, (2) 온도(𝑇_cold)가 0K에 가까울수록 열효율은 커진다</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>카르노 기관의 열효율은 온도차가 클수록 크다</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>클수록//작을수록</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>카르노 기관의 열효율은 온도가 0K에 가까울수록 커진다</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>커진다//작아진다</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>관성풍 회전반지름</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>R=-V/f//R=-Vf//R=-f/V</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>절대 소용돌이도는 로스비파의 형성 원인</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>절대 소용돌이도//잠재 소용돌이도</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>절대 소용돌이도 이류는 파동을 수평으로 전파</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>수평//수직</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>위치 소용돌이도는 북쪽으로 갈수록 커진다</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>커진다//작아진다</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>지표 도달 복사에너지 = 지구 대기 꼭대기 복사에너지 * exp(-광학두께*sec(입사각))</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>exp(-광학두께*sec(입사각))//exp(-광학두께*cos(입사각))//ln(-광학두께*sec(입사각))//ln(-광학두께*cos(입사각))</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>남중고도각 = 90 - 위도 + 적위, 적위는 동지 -23.5 ~ 하지 23.5</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>90 - 위도 + 적위//90 - 위도 - 적위//90 + 위도 + 적위//90 + 위도 - 적위</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>오메가 방정식에서 -ω ∝ 와도 이류의 연직 변화</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>와도 이류의 연직 변화//와도 이류</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>오메가 방정식에서 -ω ∝ 온도 이류</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>온도 이류//온도 이류의 연직 변화</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>오메가 방정식에서 온난이류는 상승을 의미한다</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>상승//하강</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>오메가 방정식에서 한랭이류는 하강을 의미한다</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>하강//상승</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>오메가 방정식에서 상층으로 갈수록 양의 와도가 증가하면 상승운동을 한다</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>상승//하강</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>지위경향 방정식에서 χ ∝ 온도이류의 연직 변화</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>온도이류의 연직 변화//온도이류</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>지위경향 방정식에서 χ ∝ 절대와도이류</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>절대와도이류//절대와도이류의 연직 변화</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>KI=T850-T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>T850-T500+D850-(T700-D700)//T850-T500+D850+T700-D700//T850-T500+D850-(T700+D700)//T850+T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="31">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="50">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="54">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="74">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="81">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="92">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="101">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="108">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="118">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="125">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="131">
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="132">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="133">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="136">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="149">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="152">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="159">
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="161">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="165">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="171">
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="177">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="181">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="183">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="185">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="186">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="187">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="188">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="190">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="200">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="204">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="214">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="217">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="225">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="229">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="232">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="234">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="235">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="237">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="240">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="260">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="267">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="277">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="279">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="280">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="282">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="287">
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="293">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="294">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="297">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="299">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="308">
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="310">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="318">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="331">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="332">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="341">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="344">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="346">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="349">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="365">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="367">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25DC64E-5898-4EE1-8CCA-E6A63B9C4DA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918FB13-EFAC-4009-AC40-EC98C2487741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="691">
   <si>
     <t>질문</t>
   </si>
@@ -1901,118 +1901,231 @@
   </si>
   <si>
     <t>오메가 형태는 블로킹 초기 단계에서 주로 나타난다</t>
+  </si>
+  <si>
+    <t>오메가 형태//고저기압 분리 형태</t>
+  </si>
+  <si>
+    <t>고저기압 분리 형태는 블로킹 지속단계에서 주로 나타난다</t>
+  </si>
+  <si>
+    <t>고저기압 분리 형태//오메가 형태</t>
+  </si>
+  <si>
+    <t>북극진동(AO)으로 인하여 한랭한 상층 저기압이 남쪽으로 이동하여 블로킹의 강도가 강해질 수 있다</t>
+  </si>
+  <si>
+    <t>남쪽//북쪽</t>
+  </si>
+  <si>
+    <t>ENSO로 인하여 온난한 상층 고기압이 북쪽으로 이동하여 블로킹의 강도가 강해질 수 있다</t>
+  </si>
+  <si>
+    <t>북쪽//남쪽</t>
+  </si>
+  <si>
+    <t>블로킹의 단일 원인으로 발생하며 이로인해 예보는 어렵지 않다</t>
+  </si>
+  <si>
+    <t>X//O | 블로킹 발생 원인은 특정한 기후시스템과의 연결 관계보다 복합적인 상층 시스템들과의 조화로 나타난다</t>
+  </si>
+  <si>
+    <t>북반구에서 블로킹이 가장 많이 발생하는 지역은 경도 130E를 기준으로 하는 한반도 주변이다</t>
+  </si>
+  <si>
+    <t>X//O | 10E 중심의 유럽과 북미대륙, 180E 중심의 북태평양과 알레스카 지역이다</t>
+  </si>
+  <si>
+    <t>블로킹은 겨울철이 가장 많은 빈도로 강하고 넓은 범위에서 나타난다</t>
+  </si>
+  <si>
+    <t>겨울//여름</t>
+  </si>
+  <si>
+    <t>블로킹 현상이 발생하면 500hPa에서 남북의 기온이 역전된다</t>
+  </si>
+  <si>
+    <t>O//X | 한랭저기압과 온난고기압이 남북으로 위치하기 때문이다</t>
+  </si>
+  <si>
+    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 상층저기압에 동반된 차가운 공기와 낮에 지표가열로 따뜻해진 하층 공기 사이에 불안정한 대기가 만들어지기 쉽다</t>
+  </si>
+  <si>
+    <t>북쪽//동쪽//남쪽</t>
+  </si>
+  <si>
+    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 서해안과 중부지방을 중심으로 많은 눈이 내리기도 한다</t>
+  </si>
+  <si>
+    <t>저기압//고기압</t>
+  </si>
+  <si>
+    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 동해안 폭설을 동반하기도 한다</t>
+  </si>
+  <si>
+    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 지상과 상층의 저기압이 만나 급격히 발달하기도 한다</t>
+  </si>
+  <si>
+    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 한파가 발생하기도 한다</t>
+  </si>
+  <si>
+    <t>우리나라 북쪽에 고기압 능이 위치하는 경우 맑은 날씨를 보인다</t>
+  </si>
+  <si>
+    <t>고기압//저기압</t>
+  </si>
+  <si>
+    <t>블로킹 패턴이 나타날 것으로 예상된다면, 예측모델보다는 상층일기도 분석을 통해 골의 이동을 예측하는 것이 바람직하다</t>
+  </si>
+  <si>
+    <t>예측모델보다는 상층일기도//상층일기도보다는 예측모델</t>
+  </si>
+  <si>
+    <t>500hPa 와도장은 블로킹 추적에 유용하다</t>
+  </si>
+  <si>
+    <t>O//X | 블로킹 분석을 위해서는 골의 이동을 예측해야 하며 이는 와도장을 통해 할수있다</t>
+  </si>
+  <si>
+    <t>적설예보절차
+ㄱ. 수상당량비 계산
+ㄴ. 강수형태 판단
+ㄷ. 적설량 산출</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>오메가 형태//고저기압 분리 형태</t>
+    <t>ㄴㄱㄷ//ㄱㄴㄷ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>고저기압 분리 형태는 블로킹 지속단계에서 주로 나타난다</t>
+    <t>일반적으로 눈이 내리기 위해서 0도 이상의 녹는 층의 두께가 200~600m를 넘을 수 없다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>고저기압 분리 형태//오메가 형태</t>
+    <t>200~600m//100~200m//300~700m//500~700m</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>북극진동(AO)으로 인하여 한랭한 상층 저기압이 남쪽으로 이동하여 블로킹의 강도가 강해질 수 있다</t>
+    <t>대기가 습윤단열감률을 따라 기온이 감소하는 경우, 850hPa 기온 영하 8도는 습설과 건설을 가늠하는 지표가 될 수 있다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>남쪽//북쪽</t>
+    <t>영하 8도//0도//영하 10도//영상 8도 | 지상의 기온이 0도일 경우 습윤단열감률을 적용하면 850hPa 기온은 영하 8도가 되며, 영하 10도 이하의 습윤공기에서 과냉각 수적이 다량으로 존재할 수 있다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ENSO로 인하여 온난한 상층 고기압이 북쪽으로 이동하여 블로킹의 강도가 강해질 수 있다</t>
+    <t>다음 대설 개념모델 중 성격이 다른 하나는?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>북쪽//남쪽</t>
+    <t>온난 종관 저기압형//한랭 종관 저기압형//극 저기압형//발해만 저기압형//서해안형 | 온난 종관 저기압형은 한대제트 축 남쪽, 나머지는 북쪽에서 발생하는 현상이다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>블로킹의 단일 원인으로 발생하며 이로인해 예보는 어렵지 않다</t>
+    <t>동해안형//한랭 종관 저기압형//극 저기압형//발해만 저기압형//서해안형 | 동해안형은 한대제트 축 남쪽, 나머지는 북쪽에서 발생하는 현상이다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>X//O | 블로킹 발생 원인은 특정한 기후시스템과의 연결 관계보다 복합적인 상층 시스템들과의 조화로 나타난다</t>
+    <t>한랭 종관 저기압형</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>북반구에서 블로킹이 가장 많이 발생하는 지역은 경도 130E를 기준으로 하는 한반도 주변이다</t>
+    <t xml:space="preserve">동해안 대설 사례가 많으며 전체적인 빈도는 낮다. 중상층 대기의 매우 차가운 공기와 해양의 따뜻한 수온 사이에 큰 온도차로 인한 연직 불안정 대기가 원인이다. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>X//O | 10E 중심의 유럽과 북미대륙, 180E 중심의 북태평양과 알레스카 지역이다</t>
+    <t>중심 최저기온이 영하 35℃ 이하인 500hPa 절리저기압에서 콤마형 구름대, 혹은 나선형 구름대가 나타나므로 위성영상에서 중심을 찾아낼 수 있지만 규모가 200km 내외이므로 종관규모 일기도에서 중심을 찾아내기가 쉽지 않다</t>
+  </si>
+  <si>
+    <t>500hPa 와도축 내부에서 강설은 -30℃이하 구역으로 한정되고 500hPa 부근에 대류권계면 접힘 현상이 나타난다</t>
+  </si>
+  <si>
+    <t>항상 바다에서만 형성되고 육지에 들어오면, 세력이 급격히 약화된다. 또한, 500hPa 절리저기압과 함께 이것을 감싸던 와도축이 극저기압 중심 상공을 빠져 나가면 소멸한다</t>
+  </si>
+  <si>
+    <t>강설 구역은 500hPa 절리저기압 내부에 10e-5/s 이상의 와도 축 내부로 한정된다.</t>
+  </si>
+  <si>
+    <t>관측지점의 500hPa 기온이 -35℃ 이하이면, 평균적으로 시간당 1.5∼2cm 적설이 되고, 500hPa 기온이 -30∼-35℃의 구역에 든다면, 강설 시작 후 평균 3시간 이후 적설이 나타나며, 평균적으로 총 강설시간 동안 시간당 1cm 이하 적설이 나타난다</t>
+  </si>
+  <si>
+    <t>극 저기압형</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>블로킹은 겨울철이 가장 많은 빈도로 강하고 넓은 범위에서 나타난다</t>
+    <t>한대제트 북쪽의 차가운 기단 안에서 중국 중부 내륙에서 발생한 저기압이 서해상을 지나 우리나라 내륙으로 통과하는 사례이다</t>
+  </si>
+  <si>
+    <t>저기압 발달 단계에 해당하며 동중국해와 서해상에서 습윤한 공기를 공급받아 내륙으로 이동하면서 대설이 발생한다</t>
+  </si>
+  <si>
+    <t>종관일기도에서 발달한 저기압 중심이 보이며, 주 강설 구역은 저기압 중심 진로의 동쪽과 북쪽에 형성된다. 지상의 기온이 0℃ 이하라면, 수 상당량 비는 15이상의 높은 값으로 적설을 산출할 수 있다</t>
+  </si>
+  <si>
+    <t>차가운 기단 내에서 더 차가운 공기의 파동에 의해 발생하는 중규모 저기압이 중부이북지방을 지나면서 대설이 나타나는 유형이다</t>
+  </si>
+  <si>
+    <t>주로, 서울·경기도에서 발생하는 대설 유형이며 평균적으로 1~3cm, 최대 10cm 미만의 적설이 나타난다. 저기압 발달초기 단계로써 대류 발달이 약하며, 종관일기도에서 저기압의 중심을 찾기가 난해하다</t>
+  </si>
+  <si>
+    <t>지상은 시베리아 고기압에서 변질된 이동성 고기압이 중국 남동부지역에 위치하고, 중·상층 대기의 한랭한 공기를 동반한 단파 골(trough) 접근시에 발생한다. 서해상에 해기차로 생성된 눈구름의 유입으로 강설이 시작한다</t>
+  </si>
+  <si>
+    <t>강설 구역은 저기압 중심에서 남쪽과 동쪽에만 분포하고, 700hPa 이하 하층대기에서 서풍형의 풍계에서 나타난다. 지상의 기온이 0℃ 이하라면, 수 상당량 비는 15이상의 값으로 적설을 산출할 수 있다</t>
+  </si>
+  <si>
+    <t>발해만 저기압형</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>겨울//여름</t>
+    <t>한대제트 북쪽의 차가운 기단 내에서 시베리아 고기압이 확장할 때 해기차에 의해 만들어진 눈구름이 충남서해안 및 전라남북도에 대설을 발생시키는 사례로서, 가장 빈번하게 대설을 유발하는 유형이다</t>
+  </si>
+  <si>
+    <t>850hPa의 풍속이 40kts 이상이고, 850hPa 기온과 해수면 온도와의 차가 15℃(주의보), 20℃(경보) 이상일 때 대설이 나타난다</t>
+  </si>
+  <si>
+    <t>850hPa 한랭전선 통과시부터 온도골이 지나가기까지의 구간을 강설 구역으로 설정할 수 있으며, 925hPa 풍향이 중국 동해안에서 관측지점으로 유입 가능한 형태이어야 하며, 수 상당량비는 15~20으로 적설량을 산출 할 수 있다</t>
+  </si>
+  <si>
+    <t>서해안형</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>블로킹 현상이 발생하면 500hPa에서 남북의 기온이 역전된다</t>
+    <t>한대제트 남쪽의 따뜻한 기단 내에서 중국 내륙에서 발생한 저기압이 남해상으로 지날 때 저기압 중심의 북쪽에서 강설이 나타나는 유형으로서, 지상 및 하층대기에 차가운 공기가 빠져나가지 못하고 상층의 온난한 공기가 유입되어 매우 안정한 연직 층 구조를 보인다</t>
+  </si>
+  <si>
+    <t>종관일기도에서 발달한 저기압 중심이 보이며, 한대제트축의 남쪽에 저기압 중심이 위치한다</t>
+  </si>
+  <si>
+    <t>저기압 중심이 남해상으로 진출하면서 저기압 중심 북쪽에 강설현상이 나타나며, 지상에서 동풍기류가 유입되면서 강설이 있다가 북서풍 기류로 바뀌면서 강설이 종료된다. 저기압 이동로의 북쪽과 한대제트축 남쪽으로 강설구역이 제한된다</t>
+  </si>
+  <si>
+    <t>중·상층 대기의 기온이 온난하므로 850hPa이하의 지표부근 대기기온과 지상의 기온이 절대적으로 중요하다. 수 상당량 비는 10이하이다</t>
+  </si>
+  <si>
+    <t>온난 종관저기압형</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>O//X | 한랭저기압과 온난고기압이 남북으로 위치하기 때문이다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 상층저기압에 동반된 차가운 공기와 낮에 지표가열로 따뜻해진 하층 공기 사이에 불안정한 대기가 만들어지기 쉽다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>북쪽//동쪽//남쪽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 서해안과 중부지방을 중심으로 많은 눈이 내리기도 한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 동해안 폭설을 동반하기도 한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 지상과 상층의 저기압이 만나 급격히 발달하기도 한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 한파가 발생하기도 한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저기압//고기압</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리나라 북쪽에 고기압 능이 위치하는 경우 맑은 날씨를 보인다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기압//저기압</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>블로킹 패턴이 나타날 것으로 예상된다면, 예측모델보다는 상층일기도 분석을 통해 골의 이동을 예측하는 것이 바람직하다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측모델보다는 상층일기도//상층일기도보다는 예측모델</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500hPa 와도장은 블로킹 추적에 유용하다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O//X | 블로킹 분석을 위해서는 골의 이동을 예측해야 하며 이는 와도장을 통해 할수있다</t>
+    <t>연해주 부근에 500hPa 저기압이 정체되어 있을 때, 그 후면에서 침강현상이 대규모로 일어나 지상에 중국 북동부 지역의 고기압이 발달되어 동풍류가 동해안으로 유입되는 강설 유형이다</t>
+  </si>
+  <si>
+    <t>낮은 수상당량 비를 보이나 정체된 일기배치에서 나타나는 강설형태이므로 지속시간 1일 이상 나타나기도 한다</t>
+  </si>
+  <si>
+    <t>영동산악 지방을 중심으로 대설이 나타나며, 대관령이 가장 빈도가 높다</t>
+  </si>
+  <si>
+    <t>지상에서 700hPa 부근까지 습윤층이 분포하며, 동해안은 지상의 동풍에서 500hPa 서풍으로 뚜렷한 바람이 반전(backing)하는 현상이 나타난다</t>
+  </si>
+  <si>
+    <t>주 강설 구역은 영동지방이며, 해상에서 대류성 눈구름이 만들어진 후 유입된다</t>
+  </si>
+  <si>
+    <t>해상을 거쳐 들어오는 바람의 영향을 받지 않을 때까지 강설이 지속되며, 수 상당량 비는 적은 강수량에서는 10 내외이나 지속시간이 길어지면서 10이하를 보인다</t>
+  </si>
+  <si>
+    <t>동해안형</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2093,12 +2206,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2401,16 +2517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414:B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.58203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -2481,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -2523,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -2537,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -2579,7 +2695,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -2607,7 +2723,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -2663,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -2677,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -2747,7 +2863,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -2761,7 +2877,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -2775,7 +2891,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -2803,7 +2919,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -2817,7 +2933,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -2845,7 +2961,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="2">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -2859,7 +2975,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -2901,7 +3017,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -2915,7 +3031,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -2943,7 +3059,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -2957,7 +3073,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="2">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -2971,7 +3087,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -2999,7 +3115,7 @@
         <v>61</v>
       </c>
       <c r="D42" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -3013,7 +3129,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="2">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -3097,7 +3213,7 @@
         <v>77</v>
       </c>
       <c r="D49" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -3125,7 +3241,7 @@
         <v>84</v>
       </c>
       <c r="D51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -3139,7 +3255,7 @@
         <v>84</v>
       </c>
       <c r="D52" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -3153,7 +3269,7 @@
         <v>84</v>
       </c>
       <c r="D53" s="2">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -3181,7 +3297,7 @@
         <v>93</v>
       </c>
       <c r="D55" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -3195,7 +3311,7 @@
         <v>93</v>
       </c>
       <c r="D56" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -3223,7 +3339,7 @@
         <v>102</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -3237,7 +3353,7 @@
         <v>102</v>
       </c>
       <c r="D59" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -3265,7 +3381,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -3293,7 +3409,7 @@
         <v>110</v>
       </c>
       <c r="D63" s="2">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -3377,7 +3493,7 @@
         <v>110</v>
       </c>
       <c r="D69" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -3405,7 +3521,7 @@
         <v>110</v>
       </c>
       <c r="D71" s="2">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -3419,7 +3535,7 @@
         <v>110</v>
       </c>
       <c r="D72" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -3433,7 +3549,7 @@
         <v>110</v>
       </c>
       <c r="D73" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -3447,7 +3563,7 @@
         <v>110</v>
       </c>
       <c r="D74" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -3461,7 +3577,7 @@
         <v>110</v>
       </c>
       <c r="D75" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -3503,7 +3619,7 @@
         <v>110</v>
       </c>
       <c r="D78" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -3573,7 +3689,7 @@
         <v>110</v>
       </c>
       <c r="D83" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -3685,7 +3801,7 @@
         <v>110</v>
       </c>
       <c r="D91" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -3699,7 +3815,7 @@
         <v>110</v>
       </c>
       <c r="D92" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -3727,7 +3843,7 @@
         <v>110</v>
       </c>
       <c r="D94" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -3755,7 +3871,7 @@
         <v>110</v>
       </c>
       <c r="D96" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -3769,7 +3885,7 @@
         <v>110</v>
       </c>
       <c r="D97" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -3797,7 +3913,7 @@
         <v>110</v>
       </c>
       <c r="D99" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -3825,7 +3941,7 @@
         <v>152</v>
       </c>
       <c r="D101" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -3839,7 +3955,7 @@
         <v>152</v>
       </c>
       <c r="D102" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -3853,7 +3969,7 @@
         <v>152</v>
       </c>
       <c r="D103" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -3881,7 +3997,7 @@
         <v>152</v>
       </c>
       <c r="D105" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -3909,7 +4025,7 @@
         <v>163</v>
       </c>
       <c r="D107" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -3993,7 +4109,7 @@
         <v>163</v>
       </c>
       <c r="D113" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -4007,7 +4123,7 @@
         <v>180</v>
       </c>
       <c r="D114" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -4021,7 +4137,7 @@
         <v>180</v>
       </c>
       <c r="D115" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
@@ -4119,7 +4235,7 @@
         <v>180</v>
       </c>
       <c r="D122" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -4203,7 +4319,7 @@
         <v>180</v>
       </c>
       <c r="D128" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -4217,7 +4333,7 @@
         <v>180</v>
       </c>
       <c r="D129" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -4231,7 +4347,7 @@
         <v>180</v>
       </c>
       <c r="D130" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
@@ -4245,7 +4361,7 @@
         <v>180</v>
       </c>
       <c r="D131" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -4259,7 +4375,7 @@
         <v>180</v>
       </c>
       <c r="D132" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
@@ -4273,7 +4389,7 @@
         <v>180</v>
       </c>
       <c r="D133" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -4329,7 +4445,7 @@
         <v>180</v>
       </c>
       <c r="D137" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -4357,7 +4473,7 @@
         <v>180</v>
       </c>
       <c r="D139" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -4385,7 +4501,7 @@
         <v>180</v>
       </c>
       <c r="D141" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -4399,7 +4515,7 @@
         <v>180</v>
       </c>
       <c r="D142" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -4413,7 +4529,7 @@
         <v>180</v>
       </c>
       <c r="D143" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
@@ -4427,7 +4543,7 @@
         <v>180</v>
       </c>
       <c r="D144" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
@@ -4441,7 +4557,7 @@
         <v>180</v>
       </c>
       <c r="D145" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
@@ -4455,7 +4571,7 @@
         <v>180</v>
       </c>
       <c r="D146" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
@@ -4469,7 +4585,7 @@
         <v>180</v>
       </c>
       <c r="D147" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
@@ -4539,7 +4655,7 @@
         <v>180</v>
       </c>
       <c r="D152" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
@@ -4623,7 +4739,7 @@
         <v>180</v>
       </c>
       <c r="D158" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
@@ -4651,7 +4767,7 @@
         <v>180</v>
       </c>
       <c r="D160" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
@@ -4665,7 +4781,7 @@
         <v>180</v>
       </c>
       <c r="D161" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
@@ -4679,7 +4795,7 @@
         <v>180</v>
       </c>
       <c r="D162" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
@@ -4693,7 +4809,7 @@
         <v>249</v>
       </c>
       <c r="D163" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
@@ -4721,7 +4837,7 @@
         <v>249</v>
       </c>
       <c r="D165" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
@@ -4735,7 +4851,7 @@
         <v>249</v>
       </c>
       <c r="D166" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
@@ -4777,7 +4893,7 @@
         <v>249</v>
       </c>
       <c r="D169" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
@@ -4805,7 +4921,7 @@
         <v>249</v>
       </c>
       <c r="D171" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
@@ -4833,7 +4949,7 @@
         <v>249</v>
       </c>
       <c r="D173" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
@@ -4875,7 +4991,7 @@
         <v>249</v>
       </c>
       <c r="D176" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -4889,7 +5005,7 @@
         <v>249</v>
       </c>
       <c r="D177" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
@@ -4903,7 +5019,7 @@
         <v>249</v>
       </c>
       <c r="D178" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
@@ -4917,7 +5033,7 @@
         <v>249</v>
       </c>
       <c r="D179" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
@@ -4959,7 +5075,7 @@
         <v>249</v>
       </c>
       <c r="D182" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
@@ -4973,7 +5089,7 @@
         <v>249</v>
       </c>
       <c r="D183" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
@@ -4987,7 +5103,7 @@
         <v>249</v>
       </c>
       <c r="D184" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
@@ -5001,7 +5117,7 @@
         <v>249</v>
       </c>
       <c r="D185" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
@@ -5043,7 +5159,7 @@
         <v>249</v>
       </c>
       <c r="D188" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
@@ -5071,7 +5187,7 @@
         <v>249</v>
       </c>
       <c r="D190" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -5085,7 +5201,7 @@
         <v>249</v>
       </c>
       <c r="D191" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
@@ -5127,7 +5243,7 @@
         <v>306</v>
       </c>
       <c r="D194" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -5169,7 +5285,7 @@
         <v>306</v>
       </c>
       <c r="D197" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -5197,7 +5313,7 @@
         <v>306</v>
       </c>
       <c r="D199" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -5253,7 +5369,7 @@
         <v>306</v>
       </c>
       <c r="D203" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
@@ -5267,7 +5383,7 @@
         <v>306</v>
       </c>
       <c r="D204" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
@@ -5337,7 +5453,7 @@
         <v>306</v>
       </c>
       <c r="D209" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
@@ -5379,7 +5495,7 @@
         <v>306</v>
       </c>
       <c r="D212" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -5393,7 +5509,7 @@
         <v>306</v>
       </c>
       <c r="D213" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -5407,7 +5523,7 @@
         <v>306</v>
       </c>
       <c r="D214" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -5435,7 +5551,7 @@
         <v>306</v>
       </c>
       <c r="D216" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -5463,7 +5579,7 @@
         <v>306</v>
       </c>
       <c r="D218" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -5505,7 +5621,7 @@
         <v>306</v>
       </c>
       <c r="D221" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
@@ -5533,7 +5649,7 @@
         <v>306</v>
       </c>
       <c r="D223" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
@@ -5547,7 +5663,7 @@
         <v>306</v>
       </c>
       <c r="D224" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
@@ -5575,7 +5691,7 @@
         <v>306</v>
       </c>
       <c r="D226" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
@@ -5617,7 +5733,7 @@
         <v>370</v>
       </c>
       <c r="D229" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
@@ -5631,7 +5747,7 @@
         <v>370</v>
       </c>
       <c r="D230" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
@@ -5645,7 +5761,7 @@
         <v>370</v>
       </c>
       <c r="D231" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
@@ -5659,7 +5775,7 @@
         <v>370</v>
       </c>
       <c r="D232" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
@@ -5673,7 +5789,7 @@
         <v>370</v>
       </c>
       <c r="D233" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
@@ -5701,7 +5817,7 @@
         <v>370</v>
       </c>
       <c r="D235" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
@@ -5715,7 +5831,7 @@
         <v>370</v>
       </c>
       <c r="D236" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
@@ -5771,7 +5887,7 @@
         <v>370</v>
       </c>
       <c r="D240" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
@@ -5799,7 +5915,7 @@
         <v>370</v>
       </c>
       <c r="D242" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -5813,7 +5929,7 @@
         <v>370</v>
       </c>
       <c r="D243" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
@@ -5827,7 +5943,7 @@
         <v>370</v>
       </c>
       <c r="D244" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
@@ -5841,7 +5957,7 @@
         <v>370</v>
       </c>
       <c r="D245" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
@@ -5855,7 +5971,7 @@
         <v>370</v>
       </c>
       <c r="D246" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
@@ -5883,7 +5999,7 @@
         <v>370</v>
       </c>
       <c r="D248" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -5897,7 +6013,7 @@
         <v>370</v>
       </c>
       <c r="D249" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -5925,7 +6041,7 @@
         <v>370</v>
       </c>
       <c r="D251" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -5953,7 +6069,7 @@
         <v>370</v>
       </c>
       <c r="D253" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -5981,7 +6097,7 @@
         <v>370</v>
       </c>
       <c r="D255" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -5995,7 +6111,7 @@
         <v>370</v>
       </c>
       <c r="D256" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -6023,7 +6139,7 @@
         <v>180</v>
       </c>
       <c r="D258" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
@@ -6051,7 +6167,7 @@
         <v>180</v>
       </c>
       <c r="D260" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
@@ -6065,7 +6181,7 @@
         <v>180</v>
       </c>
       <c r="D261" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
@@ -6079,7 +6195,7 @@
         <v>180</v>
       </c>
       <c r="D262" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
@@ -6093,7 +6209,7 @@
         <v>180</v>
       </c>
       <c r="D263" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
@@ -6149,7 +6265,7 @@
         <v>180</v>
       </c>
       <c r="D267" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
@@ -6191,7 +6307,7 @@
         <v>180</v>
       </c>
       <c r="D270" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
@@ -6205,7 +6321,7 @@
         <v>180</v>
       </c>
       <c r="D271" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
@@ -6247,7 +6363,7 @@
         <v>180</v>
       </c>
       <c r="D274" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
@@ -6359,7 +6475,7 @@
         <v>180</v>
       </c>
       <c r="D282" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
@@ -6373,7 +6489,7 @@
         <v>180</v>
       </c>
       <c r="D283" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
@@ -6401,7 +6517,7 @@
         <v>180</v>
       </c>
       <c r="D285" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
@@ -6415,7 +6531,7 @@
         <v>180</v>
       </c>
       <c r="D286" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
@@ -6429,7 +6545,7 @@
         <v>180</v>
       </c>
       <c r="D287" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
@@ -6485,7 +6601,7 @@
         <v>180</v>
       </c>
       <c r="D291" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
@@ -6499,7 +6615,7 @@
         <v>180</v>
       </c>
       <c r="D292" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
@@ -6513,7 +6629,7 @@
         <v>180</v>
       </c>
       <c r="D293" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
@@ -6541,7 +6657,7 @@
         <v>180</v>
       </c>
       <c r="D295" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
@@ -6695,7 +6811,7 @@
         <v>180</v>
       </c>
       <c r="D306" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
@@ -6751,7 +6867,7 @@
         <v>180</v>
       </c>
       <c r="D310" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
@@ -6765,7 +6881,7 @@
         <v>180</v>
       </c>
       <c r="D311" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
@@ -6779,7 +6895,7 @@
         <v>180</v>
       </c>
       <c r="D312" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
@@ -6807,7 +6923,7 @@
         <v>180</v>
       </c>
       <c r="D314" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
@@ -6821,7 +6937,7 @@
         <v>180</v>
       </c>
       <c r="D315" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
@@ -6919,7 +7035,7 @@
         <v>180</v>
       </c>
       <c r="D322" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
@@ -6961,7 +7077,7 @@
         <v>180</v>
       </c>
       <c r="D325" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
@@ -6989,7 +7105,7 @@
         <v>180</v>
       </c>
       <c r="D327" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
@@ -7031,7 +7147,7 @@
         <v>180</v>
       </c>
       <c r="D330" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
@@ -7073,7 +7189,7 @@
         <v>180</v>
       </c>
       <c r="D333" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
@@ -7101,7 +7217,7 @@
         <v>180</v>
       </c>
       <c r="D335" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
@@ -7157,7 +7273,7 @@
         <v>180</v>
       </c>
       <c r="D339" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
@@ -7185,7 +7301,7 @@
         <v>180</v>
       </c>
       <c r="D341" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
@@ -7199,7 +7315,7 @@
         <v>180</v>
       </c>
       <c r="D342" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
@@ -7213,7 +7329,7 @@
         <v>180</v>
       </c>
       <c r="D343" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
@@ -7325,7 +7441,7 @@
         <v>180</v>
       </c>
       <c r="D351" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
@@ -7339,7 +7455,7 @@
         <v>180</v>
       </c>
       <c r="D352" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
@@ -7381,7 +7497,7 @@
         <v>180</v>
       </c>
       <c r="D355" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
@@ -7423,7 +7539,7 @@
         <v>180</v>
       </c>
       <c r="D358" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
@@ -7479,7 +7595,7 @@
         <v>180</v>
       </c>
       <c r="D362" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
@@ -7493,7 +7609,7 @@
         <v>180</v>
       </c>
       <c r="D363" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
@@ -7507,7 +7623,7 @@
         <v>180</v>
       </c>
       <c r="D364" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
@@ -7549,7 +7665,7 @@
         <v>180</v>
       </c>
       <c r="D367" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
@@ -7563,7 +7679,7 @@
         <v>180</v>
       </c>
       <c r="D368" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
@@ -7591,7 +7707,7 @@
         <v>180</v>
       </c>
       <c r="D370" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
@@ -7605,7 +7721,7 @@
         <v>180</v>
       </c>
       <c r="D371" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
@@ -7643,6 +7759,12 @@
       <c r="B374" s="2" t="s">
         <v>624</v>
       </c>
+      <c r="C374" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D374" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="2" t="s">
@@ -7651,6 +7773,12 @@
       <c r="B375" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="C375" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D375" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="2" t="s">
@@ -7659,6 +7787,12 @@
       <c r="B376" s="2" t="s">
         <v>628</v>
       </c>
+      <c r="C376" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D376" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="2" t="s">
@@ -7667,6 +7801,12 @@
       <c r="B377" s="2" t="s">
         <v>630</v>
       </c>
+      <c r="C377" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D377" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="2" t="s">
@@ -7675,6 +7815,12 @@
       <c r="B378" s="2" t="s">
         <v>632</v>
       </c>
+      <c r="C378" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D378" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="2" t="s">
@@ -7683,6 +7829,12 @@
       <c r="B379" s="2" t="s">
         <v>634</v>
       </c>
+      <c r="C379" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D379" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="2" t="s">
@@ -7691,6 +7843,12 @@
       <c r="B380" s="2" t="s">
         <v>636</v>
       </c>
+      <c r="C380" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D380" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="2" t="s">
@@ -7699,61 +7857,372 @@
       <c r="B381" s="2" t="s">
         <v>638</v>
       </c>
+      <c r="C381" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D381" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="2" t="s">
         <v>639</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D382" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>643</v>
+      <c r="C383" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D383" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D384" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A385" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A385" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="B385" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+        <v>640</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D385" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="2" t="s">
         <v>644</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C386" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D386" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="2" t="s">
         <v>646</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C387" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D387" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="2" t="s">
         <v>648</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>649</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D388" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A389" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A390" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A391" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A392" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A393" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A394" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A395" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A396" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A397" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A398" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A399" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A400" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A410" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A411" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A412" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A413" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A414" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A415" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A416" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A417" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A418" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A419" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D442"/>
+  <dimension ref="A1:D469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="13">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="35">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="78">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="81">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="87">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="91">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="93">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="97">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="102">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="103">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="123">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="124">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="128">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="131">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="136">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="138">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="141">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="145">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="156">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="158">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="168">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="180">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="181">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="184">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="187">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="188">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="191">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="193">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="194">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="203">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="206">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="208">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="210">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="211">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="214">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="225">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="226">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="232">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="247">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="255">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="256">
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="266">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="267">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="271">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="275">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="276">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="280">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="283">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="302">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="315">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="316">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="319">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="323">
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="328">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="336">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="344">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="353">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="355">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="356">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="361">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="363">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="367">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="368">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="371">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377">
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8270,7 +8270,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -8370,7 +8370,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="397">
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -8430,7 +8430,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400">
@@ -8450,7 +8450,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="403">
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408">
@@ -8610,7 +8610,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410">
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411">
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
@@ -8690,7 +8690,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="414">
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -8790,7 +8790,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -8870,7 +8870,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -8930,7 +8930,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425">
@@ -8950,7 +8950,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="429">
@@ -9030,7 +9030,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430">
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -9090,7 +9090,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
@@ -9110,7 +9110,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9130,7 +9130,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="435">
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -9190,7 +9190,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
@@ -9290,7 +9290,547 @@
         </is>
       </c>
       <c r="D442" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>봄철이나 초겨울에는 급격히 발달하는 저기압(Bomb Low)은 황사를 발생시키기도 한다</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>O//X | 봄철이나 초겨울에는 한랭전선이 통과한 후 동해상에서 저기압이 급격히 발달하면 서쪽에 위치한 우리나라는 강한 하강류에 의해서 중국이나 몽골에서 발원한 황사 입자가 지면으로 떨어져 짙은 농도의 황사가 발생할 수 있다</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>급격히 발달하는 저기압(Bomb Low)은 성층권 하부의 저기압성 요란에 의해 발달한다</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>성층권 하부//대류권 하부//성층권 상부//대류권 상부</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>급격히 발달하는 저기압(Bomb Low)은 [   ] 대륙의 공기와 [   ] 동해상 수온이 높은 동서기온경도를 만들어 발생한다</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>차가운, 따뜻한//따뜻한, 차가운//차가운, 차가운//따뜻한, 따뜻한</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>대류권계면 접힘 현상은 급격히 발달하는 저기압(Bomb Low)을 소멸시킨다</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>X//O | 발달시킨다</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>낮은 권계면 고도는 지상과 큰 기온차이로 인한 강한 연직불안정을 만들고, 저기압성 와도를 하부로 증폭시켜 지상저기압을 발달시킨다</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>낮은//높은</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>극 제트(Polar Jet)와 관계된 간접순환에 의해서 저기압이 급격히 발달할 수 있다</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>간접순환//직접순환</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>동해상에서 급격히 발달하는 저기압 요약: 이동성 고기압의 서쪽 가장자리에서 저기압 중심의 기온이 따뜻한 저기압 발달</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>따뜻한//차가운</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>동해상에서 급격히 발달하는 저기압 요약: 북서쪽에 차가운 공기의 접근으로 서해상에서 전선형 저기압으로 발달</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>차가운//온난한</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>동해상에서 급격히 발달하는 저기압 요약: 500hPa 절리저기압, 500hPa부근(290~300K 등온위면) 1.5PVU 이상값 존재</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1.5PVU//1.0PVU//2.0PVU//0.5PVU//2.5PVU//1.25PVU//1.1PVU//1.2PVU//1.3PVU//1.4PVU//1.6PVU//1.7PVU//1.75PVU</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>동해상에서 급격히 발달하는 저기압 요약: 극 제트중심의 북쪽이 동해상에 위치할 때 급격히 발달</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>동해상//서해상//한반도//연해주//만주//일본</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>코리올리 힘을 고려하면 우리나라를 지나는 저기압은 북동쪽으로 이동해야 발달한다</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>북동쪽//동쪽//남동쪽 | 북쪽으로 갈수록 전향력이 증가한다</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>다음 중 성격이 다른 하나는?</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>복사역전층//전선역전층//난류역전층//침강역전층 | 복사역전층은 지상역전층이고 나머지는 공중역전층이다</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>절대 안정</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Γ&lt;Γs</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>불안정 판단</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>조건부 불안정</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ&lt;Γd</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>불안정 판단</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>절대 불안정</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Γd&lt;Γ</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>불안정 판단</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>불안정 (불포화공기)</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Γd&lt;Γ</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>불안정 판단</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>불안정 (포화공기)</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>불안정 판단</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>경도풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>기압경도력, 전향력, 원심력</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>힘의 균형</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>지균풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>기압경도력, 전향력</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>힘의 균형</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>선형풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>기압경도력, 원심력</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>힘의 균형</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>관성풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>전향력, 원심력</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>힘의 균형</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>고기압 주변에서 경도풍은 지균풍보다 빠르다</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>빠르다</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>빠르다 vs 느리다</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>저기압 주변에서 경도풍은 지균풍보다 느리다</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>느리다</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>빠르다 vs 느리다</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>고기압 주변에서 지균풍은 경도풍보다 느리다</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>느리다</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>빠르다 vs 느리다</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>저기압 주변에서 지균풍은 경도풍보다 빠르다</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>빠르다</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>빠르다 vs 느리다</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>정상고기압</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>원심력 &lt; 기압경도력 &lt; 전향력</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>정상고기압 vs 정상저기압</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>정상저기압</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>원심력 &lt; 전향력 &lt; 기압경도력</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>정상고기압 vs 정상저기압</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="78">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="88">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="116">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="128">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="179">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="200">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="202">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="203">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="214">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="248">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="281">
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="288">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="374">
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="381">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="383">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8270,7 +8270,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="392">
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399">
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406">
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -8790,7 +8790,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -9450,7 +9450,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
@@ -9470,7 +9470,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453">
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456">
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="457">
@@ -9590,7 +9590,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -9630,7 +9630,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
@@ -9670,7 +9670,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -9710,7 +9710,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
@@ -9750,7 +9750,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
@@ -9770,7 +9770,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
@@ -9810,7 +9810,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
@@ -9870,7 +9870,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472">
@@ -9890,7 +9890,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -9930,7 +9930,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
@@ -9950,7 +9950,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -9970,7 +9970,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -9990,7 +9990,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479">
@@ -10030,7 +10030,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483">
@@ -10110,7 +10110,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489">
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
@@ -10250,7 +10250,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -10290,7 +10290,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494">
@@ -10330,7 +10330,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -10350,7 +10350,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
@@ -10430,6 +10430,1086 @@
         </is>
       </c>
       <c r="D499" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>수평편파와 수직편파 반사도의 차</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>차등반사도</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>차등반사도 vs 교차상관계수</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>목표물의 형태와 크기를 관측한다</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>차등반사도</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>차등반사도 vs 교차상관계수</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>수평편차와 수직편파의 상관관계</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>교차상관계수</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>차등반사도 vs 교차상관계수</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>레이더 빔 내에 있는 목표물의 형태와 크기의 일관성을 관측한다</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>교차상관계수</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>차등반사도 vs 교차상관계수</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>앙상블 예보는 스프레드가 좁을수록 예측성 높다</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>좁을수록//넓을수록</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>시그마좌표계는 기압/지면기압을 연직좌표로 한다</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>기압/지면기압//기압/해면기압//지면기압/기압//해면기압/기압</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>시그마좌표계의 연직좌표는 지면에서 1, 상단경계에서 0이다</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>지면에서 1, 상단경계에서 0//지면에서 0, 상단경계에서 1</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>수치모델을 이용한 예보과정은 분석→모델 예측 순서로 진행된다</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>분석→모델 예측//모델 예측→분석 | 여기서 분석은 예보관이 아닌 컴퓨터가 하는 것을 의미한다</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>12000 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 추정값이다</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>지상전문 풍속 단위</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 실측값이다</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>지상전문 풍속 단위</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>12003 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>풍속 단위는 kts이며 추정값이다</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>지상전문 풍속 단위</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>12004 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>풍속 단위는 kts이며 실측값이다</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>지상전문 풍속 단위</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>운량은 5옥타이다</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>지상전문 운량</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 01212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>운량은 0옥타이다</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>지상전문 운량</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 31212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>운량은 3옥타이다</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>지상전문 운량</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>남동풍</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 50712 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>북동풍</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 52112 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>남서풍</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 52812 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>북서풍</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 50012 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>북풍</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 50912 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>동풍</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51812 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>남풍</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 52712 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>서풍</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>지상전문 풍향</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>기온은 -7.4℃이다</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>지상전문 기온, 이슬점온도</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 10074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>기온은 7.4℃이다</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>지상전문 기온, 이슬점온도</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11075 21114 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>이슬점 온도는 -11.4℃이다</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>지상전문 기온, 이슬점온도</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 10084 20074 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>이슬점 온도는 7.4℃이다</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>지상전문 기온, 이슬점온도</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 52002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>기압은 3시간 동은 0.2hPa 증가했다</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>지상전문 기압변동</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 54000 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>기압은 3시간 동안 일정했다</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>지상전문 기압변동</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>기압은 3시간 동은 0.2hPa 감소했다</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>지상전문 기압변동</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>최하층 운저는 0~50m이다</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>12001 47108 11160 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>최하층 운저는 50~100m이다</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>12001 47108 11260 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>최하층 운저는 100~200m이다</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>12001 47108 11360 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>최하층 운저는 200~300m이다</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>12001 47108 11460 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>최하층 운저는 300~600m이다</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>최하층 운저는 600~1000m이다</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>12001 47108 11660 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>최하층 운저는 1000~1500m이다</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>12001 47108 11760 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>최하층 운저는 1500~2000m이다</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>12001 47108 11860 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>최하층 운저는 2000~2500m이다</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>12001 47108 11960 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>최하층 운저는 2500m~ 이다</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>지상전문 최하층운저</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 60472 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>강수량 47mm//강수량 47.2mm//강수량 4.7mm//강수량 47cm//강수량 47.2cm</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69892 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>강수량 989mm이상//Trace//강수량 98.9mm//강수량 98.9cm</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Trace//강수량 990mm 이상//강수량 99.0mm//강수량 99.0cm</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69922 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>강수량 0.2mm//강수량 992mm//Trace//강수량 99.2mm | 991~999은 (RRR-990)x0.1mm</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 60470 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>강수 안 끝남</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69891 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>집수 기간 6시간</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>집수 기간 12시간</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69923 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>집수 기간 18시간</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 60474 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>집수 기간 24시간</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69895 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>집수 기간 1시간</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69906 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>집수 기간 2시간</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69927 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>집수 기간 3시간</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69908 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>집수 기간 9시간</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69909 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>집수 기간 15시간</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>지상기상전문 집수기간</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8270,7 +8270,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392">
@@ -8310,7 +8310,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -8370,7 +8370,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -8450,7 +8450,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -8790,7 +8790,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -8810,7 +8810,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -8850,7 +8850,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9110,7 +9110,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -9130,7 +9130,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -9290,7 +9290,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
@@ -9470,7 +9470,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459">
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -9710,7 +9710,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -9750,7 +9750,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -9930,7 +9930,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -9950,7 +9950,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -10030,7 +10030,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -10250,7 +10250,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -10530,7 +10530,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -10570,7 +10570,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -10590,7 +10590,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -10650,7 +10650,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -10730,7 +10730,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="515">
@@ -10770,7 +10770,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517">
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -10850,7 +10850,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -11030,7 +11030,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -11130,7 +11130,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -11190,7 +11190,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -11250,7 +11250,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -11370,7 +11370,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -11410,7 +11410,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -11430,7 +11430,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -11470,7 +11470,7 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555">
@@ -11590,7 +11590,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
@@ -11630,7 +11630,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="560">
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/전공.xlsx
+++ b/학습자료/단답형/전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
@@ -6213,7 +6213,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>지상전문 ∞</t>
+          <t>지상전문 [ ∞ ]</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>지상전문 ∞</t>
+          <t>지상전문 [ ∞ ]</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6253,7 +6253,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>지상전문 S</t>
+          <t>지상전문 [ S ]</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6273,7 +6273,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>지상전문 =</t>
+          <t>지상전문 [ = ]</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6293,7 +6293,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>지상전문 =</t>
+          <t>지상전문 [ = ]</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6307,13 +6307,13 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t xml:space="preserve">지상전문 : </t>
+          <t xml:space="preserve">지상전문 [ : ] </t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>지상전문 ㆍㆍ</t>
+          <t>지상전문 [ㆍㆍ]</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6353,7 +6353,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>지상전문 ∴</t>
+          <t>지상전문 [ ∴ ]</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377">
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378">
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
@@ -8370,7 +8370,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406">
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410">
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
@@ -9470,7 +9470,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>동해상//서해상//한반도//연해주//만주//일본</t>
+          <t>북쪽//남쪽//동쪽//서쪽</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
@@ -9630,7 +9630,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463">
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
@@ -9750,7 +9750,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -9970,7 +9970,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479">
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
@@ -10350,7 +10350,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496">
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
@@ -10650,7 +10650,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519">
@@ -10850,7 +10850,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521">
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
@@ -11430,7 +11430,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
@@ -11570,7 +11570,7 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
@@ -11651,6 +11651,453 @@
       </c>
       <c r="D560" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>02111 47102 99015 12465 29001 00169 16475 23504 92831 14270
+14506 85536 08265 11508 70103 01182 08506 50573 15565 34017
+40737 26171 35522 30938 42162 33530 25059 50968 33536 20201
+62359 32021 15379 57579 30528 10631 68171 28521 88177 66957
+30536 77266 33537 41115 77177 30536 42208 31313 44108 81119==
+풍속의 단위는 m/s이다</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>m/s| 02111 m/s, 52111 kts</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>상층전문 풍속 단위</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33569 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+풍속의 단위는 kts이다</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>kts| 02121 m/s, 52121 kts</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>상층전문 풍속 단위</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>02111 47102 99015 12465 29001 00169 16475 23504 92831 14270
+14506 85536 08265 11508 70103 01182 08506 50573 15565 34017
+40737 26171 35522 30938 42162 33530 25059 50968 33536 20201
+62359 32021 15379 57579 30528 10631 68171 28521 88177 66957
+30536 77266 33537 41115 77177 30536 42208 31313 44108 81119== 
+관측 시간은 11UTC이다</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>11UTC//11KST//12UTC//12KST//21UTC//21KST</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>상층전문 관측 시간</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33569 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+관측 시간은 12UTC이다</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>12UTC//11UTC//11KST//12KST//21UTC//21KST</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>상층전문 관측 시간</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33569 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+보고되는 마지막 표준 등압면은 100 or 150hPa이다</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>100 or 150hPa</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>상층전문 마지막 표준 등압면</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>52122 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33569 20201
+62359 32041=
+보고되는 마지막 표준 등압면은 200 or 250hPa이다</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>200 or 250hPa</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>상층전문 마지막 표준 등압면</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>52125 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+=
+보고되는 마지막 표준 등압면은 500hPa이다</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>500hPa</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>상층전문 마지막 표준 등압면</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33569 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+지상기압은 1015hPa이다</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>1015hPa//1001.5hPa//990hPa//990.15hPa</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33569 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+지상기온은 +12.4℃ 이다</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>+12.4℃//-12.4℃//+24.6℃//-24.6℃</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33569 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+지상 노점편차는 15℃이다</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>노점편차는 15℃//노점온도는 15℃//노점온도는 -15℃//노점편차는 6.5℃//노점온도는 6.5℃//노점온도는 -6.5℃//노점편차는 1.5℃//노점온도는 -1.5℃</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+250hPa 등압면의 풍향은 335도 이다</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>335도//336도//330도//366도//365도</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+지상 풍속은 3kts이다</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>3kts//3m/s//0.3kts//0.3m/s</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>12121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+지상 풍속은 3m/s이다</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>3m/s//3kts//0.3kts//0.3m/s</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+700hPa 등압면 지위고도는 3103m이다</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>3103m//3103m^2/s//2103m//2103m^2/s</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+500hPa 등압면 지위고도는 5730m이다</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>5730m//5573m//5057.3m</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+400hPa 등압면 지위고도는 7370m이다</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>7370m//6737m//7737m</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+300hPa 등압면 지위고도는 9380m이다</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>9380m//9938m</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+250hPa 등압면 지위고도는 10590m이다</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>10590m//15900m//10059m</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
